--- a/src/main/resources/static/xls/latest.xlsx
+++ b/src/main/resources/static/xls/latest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="16245" windowHeight="5760"/>
+    <workbookView xWindow="396" yWindow="60" windowWidth="16248" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="20190422-20171101" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1437">
   <si>
     <t>date</t>
   </si>
@@ -4241,6 +4241,90 @@
   </si>
   <si>
     <t>3-洛阳玻璃-600876.SH-实体-河南-11.0</t>
+  </si>
+  <si>
+    <t>4-鲁商发展-600223.SH-非实体-山东-5.0</t>
+  </si>
+  <si>
+    <t>4-振静股份-603477.SH-实体-四川-32.0</t>
+  </si>
+  <si>
+    <t>5-鲁商发展-600223.SH-非实体-山东-5.0</t>
+  </si>
+  <si>
+    <t>2-四方精创-300468.SZ-实体-深圳-8.0</t>
+  </si>
+  <si>
+    <t>6-鲁商发展-600223.SH-非实体-山东-5.0</t>
+  </si>
+  <si>
+    <t>2-益生股份-002458.SZ-实体-山东-16.0</t>
+  </si>
+  <si>
+    <t>1-牧原股份-002714.SZ-实体-河南-8.0</t>
+  </si>
+  <si>
+    <t>2-文化长城-300089.SZ-实体-广东-16.0</t>
+  </si>
+  <si>
+    <t>5-古鳌科技-300551.SZ-实体-上海-9.0</t>
+  </si>
+  <si>
+    <t>1-新大陆-000997.SZ-实体-福建-0.0</t>
+  </si>
+  <si>
+    <t>2-漫步者-002351.SZ-实体-深圳-15.0</t>
+  </si>
+  <si>
+    <t>古鳌科技&amp;300551.SZ&amp;0.1***</t>
+  </si>
+  <si>
+    <t>4-文化长城-300089.SZ-非实体-广东-16.0</t>
+  </si>
+  <si>
+    <t>2-智度股份-000676.SZ-实体-河南-7.0</t>
+  </si>
+  <si>
+    <t>1-益生股份-002458.SZ-实体-山东-11.0</t>
+  </si>
+  <si>
+    <t>2-中装建设-002822.SZ-实体-深圳-7.0</t>
+  </si>
+  <si>
+    <t>先进数通&amp;300541.SZ&amp;-0.03***</t>
+  </si>
+  <si>
+    <t>5-文化长城-300089.SZ-实体-广东-29.0</t>
+  </si>
+  <si>
+    <t>1-天康生物-002100.SZ-实体-新疆-9.0</t>
+  </si>
+  <si>
+    <t>3-易见股份-600093.SH-实体-四川-0.0</t>
+  </si>
+  <si>
+    <t>3-智度股份-000676.SZ-实体-河南-7.0</t>
+  </si>
+  <si>
+    <t>浙大网新&amp;600797.SH&amp;-0.03***易见股份&amp;600093.SH&amp;-0.03***</t>
+  </si>
+  <si>
+    <t>6-文化长城-300089.SZ-实体-广东-40.0</t>
+  </si>
+  <si>
+    <t>1-药明康德-603259.SH-实体-江苏-5.0</t>
+  </si>
+  <si>
+    <t>2-丰华股份-600615.SH-实体-上海-16.0</t>
+  </si>
+  <si>
+    <t>5-新湖中宝-600208.SH-实体-浙江-8.0</t>
+  </si>
+  <si>
+    <t>2-联络互动-002280.SZ-实体-浙江-16.0</t>
+  </si>
+  <si>
+    <t>3-丰华股份-600615.SH-实体-上海-21.0</t>
   </si>
 </sst>
 </file>
@@ -5236,19 +5320,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X460"/>
+  <dimension ref="A1:X468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S456" sqref="S456:S460"/>
+      <pane ySplit="1" topLeftCell="A443" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A460" sqref="A460:XFD468"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="37.75" customWidth="1"/>
-    <col min="20" max="20" width="11.375" customWidth="1"/>
+    <col min="19" max="19" width="37.77734375" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
     <col min="22" max="22" width="39" customWidth="1"/>
   </cols>
   <sheetData>
@@ -39215,7 +39299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:24">
+    <row r="460" spans="1:24" s="9" customFormat="1">
       <c r="A460" s="9">
         <v>0</v>
       </c>
@@ -39286,6 +39370,598 @@
         <v>2</v>
       </c>
       <c r="X460" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:24" s="9" customFormat="1">
+      <c r="A461" s="9">
+        <v>0</v>
+      </c>
+      <c r="B461" s="9">
+        <v>20191023</v>
+      </c>
+      <c r="C461" s="9">
+        <v>8</v>
+      </c>
+      <c r="D461" s="9">
+        <v>5</v>
+      </c>
+      <c r="E461" s="9">
+        <v>27</v>
+      </c>
+      <c r="F461" s="9">
+        <v>34</v>
+      </c>
+      <c r="G461" s="9">
+        <v>2</v>
+      </c>
+      <c r="H461" s="9">
+        <v>7</v>
+      </c>
+      <c r="I461" s="9">
+        <v>0</v>
+      </c>
+      <c r="J461" s="9">
+        <v>0</v>
+      </c>
+      <c r="K461" s="9">
+        <v>1</v>
+      </c>
+      <c r="L461" s="9">
+        <v>7</v>
+      </c>
+      <c r="M461" s="9">
+        <v>0</v>
+      </c>
+      <c r="N461" s="9">
+        <v>1</v>
+      </c>
+      <c r="O461" s="9">
+        <v>2</v>
+      </c>
+      <c r="P461" s="9">
+        <v>21</v>
+      </c>
+      <c r="Q461" s="9">
+        <v>0</v>
+      </c>
+      <c r="R461" s="9">
+        <v>2</v>
+      </c>
+      <c r="S461" s="9" t="s">
+        <v>1409</v>
+      </c>
+      <c r="T461" s="9">
+        <v>0</v>
+      </c>
+      <c r="U461" s="9">
+        <v>0</v>
+      </c>
+      <c r="V461" s="9" t="s">
+        <v>1410</v>
+      </c>
+      <c r="W461" s="9">
+        <v>0</v>
+      </c>
+      <c r="X461" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:24" s="9" customFormat="1">
+      <c r="A462" s="9">
+        <v>0</v>
+      </c>
+      <c r="B462" s="9">
+        <v>20191024</v>
+      </c>
+      <c r="C462" s="9">
+        <v>11</v>
+      </c>
+      <c r="D462" s="9">
+        <v>6</v>
+      </c>
+      <c r="E462" s="9">
+        <v>22</v>
+      </c>
+      <c r="F462" s="9">
+        <v>29</v>
+      </c>
+      <c r="G462" s="9">
+        <v>0</v>
+      </c>
+      <c r="H462" s="9">
+        <v>7</v>
+      </c>
+      <c r="I462" s="9">
+        <v>0</v>
+      </c>
+      <c r="J462" s="9">
+        <v>2</v>
+      </c>
+      <c r="K462" s="9">
+        <v>0</v>
+      </c>
+      <c r="L462" s="9">
+        <v>8</v>
+      </c>
+      <c r="M462" s="9">
+        <v>0</v>
+      </c>
+      <c r="N462" s="9">
+        <v>1</v>
+      </c>
+      <c r="O462" s="9">
+        <v>11</v>
+      </c>
+      <c r="P462" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q462" s="9">
+        <v>0</v>
+      </c>
+      <c r="R462" s="9">
+        <v>1</v>
+      </c>
+      <c r="S462" s="9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="T462" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="U462" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="V462" s="9" t="s">
+        <v>1412</v>
+      </c>
+      <c r="W462" s="9">
+        <v>2</v>
+      </c>
+      <c r="X462" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:24" s="9" customFormat="1">
+      <c r="A463" s="9">
+        <v>0</v>
+      </c>
+      <c r="B463" s="9">
+        <v>20191025</v>
+      </c>
+      <c r="C463" s="9">
+        <v>10</v>
+      </c>
+      <c r="D463" s="9">
+        <v>4</v>
+      </c>
+      <c r="E463" s="9">
+        <v>26</v>
+      </c>
+      <c r="F463" s="9">
+        <v>34</v>
+      </c>
+      <c r="G463" s="9">
+        <v>0</v>
+      </c>
+      <c r="H463" s="9">
+        <v>8</v>
+      </c>
+      <c r="I463" s="9">
+        <v>0</v>
+      </c>
+      <c r="J463" s="9">
+        <v>0</v>
+      </c>
+      <c r="K463" s="9">
+        <v>0</v>
+      </c>
+      <c r="L463" s="9">
+        <v>11</v>
+      </c>
+      <c r="M463" s="9">
+        <v>0</v>
+      </c>
+      <c r="N463" s="9">
+        <v>1</v>
+      </c>
+      <c r="O463" s="9">
+        <v>4</v>
+      </c>
+      <c r="P463" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q463" s="9">
+        <v>0</v>
+      </c>
+      <c r="R463" s="9">
+        <v>0</v>
+      </c>
+      <c r="S463" s="9" t="s">
+        <v>1413</v>
+      </c>
+      <c r="T463" s="9" t="s">
+        <v>1414</v>
+      </c>
+      <c r="U463" s="9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="V463" s="9" t="s">
+        <v>1416</v>
+      </c>
+      <c r="W463" s="9">
+        <v>3</v>
+      </c>
+      <c r="X463" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:24" s="9" customFormat="1">
+      <c r="A464" s="9">
+        <v>0</v>
+      </c>
+      <c r="B464" s="9">
+        <v>20191028</v>
+      </c>
+      <c r="C464" s="9">
+        <v>13</v>
+      </c>
+      <c r="D464" s="9">
+        <v>9</v>
+      </c>
+      <c r="E464" s="9">
+        <v>88</v>
+      </c>
+      <c r="F464" s="9">
+        <v>150</v>
+      </c>
+      <c r="G464" s="9">
+        <v>38</v>
+      </c>
+      <c r="H464" s="9">
+        <v>62</v>
+      </c>
+      <c r="I464" s="9">
+        <v>0</v>
+      </c>
+      <c r="J464" s="9">
+        <v>0</v>
+      </c>
+      <c r="K464" s="9">
+        <v>0</v>
+      </c>
+      <c r="L464" s="9">
+        <v>10</v>
+      </c>
+      <c r="M464" s="9">
+        <v>0</v>
+      </c>
+      <c r="N464" s="9">
+        <v>3</v>
+      </c>
+      <c r="O464" s="9">
+        <v>10</v>
+      </c>
+      <c r="P464" s="9">
+        <v>31</v>
+      </c>
+      <c r="Q464" s="9">
+        <v>0</v>
+      </c>
+      <c r="R464" s="9">
+        <v>7</v>
+      </c>
+      <c r="S464" s="9" t="s">
+        <v>1417</v>
+      </c>
+      <c r="T464" s="9" t="s">
+        <v>1418</v>
+      </c>
+      <c r="U464" s="9" t="s">
+        <v>1418</v>
+      </c>
+      <c r="V464" s="9" t="s">
+        <v>1419</v>
+      </c>
+      <c r="W464" s="9">
+        <v>5</v>
+      </c>
+      <c r="X464" s="9" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="465" spans="1:24" s="9" customFormat="1">
+      <c r="A465" s="9">
+        <v>0</v>
+      </c>
+      <c r="B465" s="9">
+        <v>20191029</v>
+      </c>
+      <c r="C465" s="9">
+        <v>33</v>
+      </c>
+      <c r="D465" s="9">
+        <v>16</v>
+      </c>
+      <c r="E465" s="9">
+        <v>26</v>
+      </c>
+      <c r="F465" s="9">
+        <v>44</v>
+      </c>
+      <c r="G465" s="9">
+        <v>7</v>
+      </c>
+      <c r="H465" s="9">
+        <v>18</v>
+      </c>
+      <c r="I465" s="9">
+        <v>0</v>
+      </c>
+      <c r="J465" s="9">
+        <v>1</v>
+      </c>
+      <c r="K465" s="9">
+        <v>9</v>
+      </c>
+      <c r="L465" s="9">
+        <v>13</v>
+      </c>
+      <c r="M465" s="9">
+        <v>0</v>
+      </c>
+      <c r="N465" s="9">
+        <v>4</v>
+      </c>
+      <c r="O465" s="9">
+        <v>14</v>
+      </c>
+      <c r="P465" s="9">
+        <v>45</v>
+      </c>
+      <c r="Q465" s="9">
+        <v>0</v>
+      </c>
+      <c r="R465" s="9">
+        <v>10</v>
+      </c>
+      <c r="S465" s="9" t="s">
+        <v>1421</v>
+      </c>
+      <c r="T465" s="9" t="s">
+        <v>1422</v>
+      </c>
+      <c r="U465" s="9" t="s">
+        <v>1423</v>
+      </c>
+      <c r="V465" s="9" t="s">
+        <v>1424</v>
+      </c>
+      <c r="W465" s="9">
+        <v>2</v>
+      </c>
+      <c r="X465" s="9" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="466" spans="1:24" s="9" customFormat="1">
+      <c r="A466" s="9">
+        <v>0</v>
+      </c>
+      <c r="B466" s="9">
+        <v>20191030</v>
+      </c>
+      <c r="C466" s="9">
+        <v>14</v>
+      </c>
+      <c r="D466" s="9">
+        <v>8</v>
+      </c>
+      <c r="E466" s="9">
+        <v>22</v>
+      </c>
+      <c r="F466" s="9">
+        <v>29</v>
+      </c>
+      <c r="G466" s="9">
+        <v>2</v>
+      </c>
+      <c r="H466" s="9">
+        <v>7</v>
+      </c>
+      <c r="I466" s="9">
+        <v>1</v>
+      </c>
+      <c r="J466" s="9">
+        <v>10</v>
+      </c>
+      <c r="K466" s="9">
+        <v>0</v>
+      </c>
+      <c r="L466" s="9">
+        <v>33</v>
+      </c>
+      <c r="M466" s="9">
+        <v>0</v>
+      </c>
+      <c r="N466" s="9">
+        <v>1</v>
+      </c>
+      <c r="O466" s="9">
+        <v>33</v>
+      </c>
+      <c r="P466" s="9">
+        <v>17</v>
+      </c>
+      <c r="Q466" s="9">
+        <v>0</v>
+      </c>
+      <c r="R466" s="9">
+        <v>1</v>
+      </c>
+      <c r="S466" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="T466" s="9" t="s">
+        <v>1427</v>
+      </c>
+      <c r="U466" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="V466" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="W466" s="9">
+        <v>2</v>
+      </c>
+      <c r="X466" s="9" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="467" spans="1:24" s="9" customFormat="1">
+      <c r="A467" s="9">
+        <v>0</v>
+      </c>
+      <c r="B467" s="9">
+        <v>20191031</v>
+      </c>
+      <c r="C467" s="9">
+        <v>7</v>
+      </c>
+      <c r="D467" s="9">
+        <v>3</v>
+      </c>
+      <c r="E467" s="9">
+        <v>15</v>
+      </c>
+      <c r="F467" s="9">
+        <v>19</v>
+      </c>
+      <c r="G467" s="9">
+        <v>0</v>
+      </c>
+      <c r="H467" s="9">
+        <v>4</v>
+      </c>
+      <c r="I467" s="9">
+        <v>0</v>
+      </c>
+      <c r="J467" s="9">
+        <v>2</v>
+      </c>
+      <c r="K467" s="9">
+        <v>4</v>
+      </c>
+      <c r="L467" s="9">
+        <v>14</v>
+      </c>
+      <c r="M467" s="9">
+        <v>0</v>
+      </c>
+      <c r="N467" s="9">
+        <v>5</v>
+      </c>
+      <c r="O467" s="9">
+        <v>37</v>
+      </c>
+      <c r="P467" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q467" s="9">
+        <v>0</v>
+      </c>
+      <c r="R467" s="9">
+        <v>1</v>
+      </c>
+      <c r="S467" s="9" t="s">
+        <v>1431</v>
+      </c>
+      <c r="T467" s="9" t="s">
+        <v>1432</v>
+      </c>
+      <c r="U467" s="9" t="s">
+        <v>1432</v>
+      </c>
+      <c r="V467" s="9" t="s">
+        <v>1433</v>
+      </c>
+      <c r="W467" s="9">
+        <v>1</v>
+      </c>
+      <c r="X467" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:24" s="9" customFormat="1">
+      <c r="A468" s="9">
+        <v>0</v>
+      </c>
+      <c r="B468" s="9">
+        <v>20191101</v>
+      </c>
+      <c r="C468" s="9">
+        <v>8</v>
+      </c>
+      <c r="D468" s="9">
+        <v>7</v>
+      </c>
+      <c r="E468" s="9">
+        <v>32</v>
+      </c>
+      <c r="F468" s="9">
+        <v>33</v>
+      </c>
+      <c r="G468" s="9">
+        <v>1</v>
+      </c>
+      <c r="H468" s="9">
+        <v>1</v>
+      </c>
+      <c r="I468" s="9">
+        <v>0</v>
+      </c>
+      <c r="J468" s="9">
+        <v>0</v>
+      </c>
+      <c r="K468" s="9">
+        <v>0</v>
+      </c>
+      <c r="L468" s="9">
+        <v>7</v>
+      </c>
+      <c r="M468" s="9">
+        <v>0</v>
+      </c>
+      <c r="N468" s="9">
+        <v>2</v>
+      </c>
+      <c r="O468" s="9">
+        <v>7</v>
+      </c>
+      <c r="P468" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q468" s="9">
+        <v>0</v>
+      </c>
+      <c r="R468" s="9">
+        <v>1</v>
+      </c>
+      <c r="S468" s="9" t="s">
+        <v>1434</v>
+      </c>
+      <c r="T468" s="9" t="s">
+        <v>1435</v>
+      </c>
+      <c r="U468" s="9">
+        <v>0</v>
+      </c>
+      <c r="V468" s="9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="W468" s="9">
+        <v>3</v>
+      </c>
+      <c r="X468" s="9">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/static/xls/latest.xlsx
+++ b/src/main/resources/static/xls/latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="1448">
   <si>
     <t>date</t>
   </si>
@@ -4325,6 +4325,39 @@
   </si>
   <si>
     <t>3-丰华股份-600615.SH-实体-上海-21.0</t>
+  </si>
+  <si>
+    <t>3-环球印务-002799.SZ-实体-陕西-12.0</t>
+  </si>
+  <si>
+    <t>1-天康生物-002100.SZ-实体-新疆-10.0</t>
+  </si>
+  <si>
+    <t>2-漫步者-002351.SZ-实体-深圳-13.0</t>
+  </si>
+  <si>
+    <t>3-当代东方-000673.SZ-实体-山西-27.0</t>
+  </si>
+  <si>
+    <t>1-亿纬锂能-300014.SZ-实体-广东-9.0</t>
+  </si>
+  <si>
+    <t>2-鹏辉能源-300438.SZ-实体-广东-12.0</t>
+  </si>
+  <si>
+    <t>4-当代东方-000673.SZ-实体-山西-32.0</t>
+  </si>
+  <si>
+    <t>2-佳禾智能-300793.SZ-实体-广东-9.0</t>
+  </si>
+  <si>
+    <t>5-当代东方-000673.SZ-实体-山西-39.0</t>
+  </si>
+  <si>
+    <t>3-四方精创-300468.SZ-实体-深圳-18.0</t>
+  </si>
+  <si>
+    <t>1-正邦科技-002157.SZ-实体-江西-7.0</t>
   </si>
 </sst>
 </file>
@@ -5320,11 +5353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X468"/>
+  <dimension ref="A1:X472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A443" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A460" sqref="A460:XFD468"/>
+      <pane ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J475" sqref="J475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -39962,6 +39995,302 @@
         <v>3</v>
       </c>
       <c r="X468" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:24" s="9" customFormat="1">
+      <c r="A469" s="9">
+        <v>0</v>
+      </c>
+      <c r="B469" s="9">
+        <v>20191104</v>
+      </c>
+      <c r="C469" s="9">
+        <v>7</v>
+      </c>
+      <c r="D469" s="9">
+        <v>6</v>
+      </c>
+      <c r="E469" s="9">
+        <v>25</v>
+      </c>
+      <c r="F469" s="9">
+        <v>28</v>
+      </c>
+      <c r="G469" s="9">
+        <v>3</v>
+      </c>
+      <c r="H469" s="9">
+        <v>3</v>
+      </c>
+      <c r="I469" s="9">
+        <v>0</v>
+      </c>
+      <c r="J469" s="9">
+        <v>1</v>
+      </c>
+      <c r="K469" s="9">
+        <v>4</v>
+      </c>
+      <c r="L469" s="9">
+        <v>8</v>
+      </c>
+      <c r="M469" s="9">
+        <v>0</v>
+      </c>
+      <c r="N469" s="9">
+        <v>0</v>
+      </c>
+      <c r="O469" s="9">
+        <v>3</v>
+      </c>
+      <c r="P469" s="9">
+        <v>28</v>
+      </c>
+      <c r="Q469" s="9">
+        <v>0</v>
+      </c>
+      <c r="R469" s="9">
+        <v>0</v>
+      </c>
+      <c r="S469" s="9" t="s">
+        <v>1437</v>
+      </c>
+      <c r="T469" s="9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="U469" s="9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="V469" s="9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="W469" s="9">
+        <v>1</v>
+      </c>
+      <c r="X469" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:24" s="9" customFormat="1">
+      <c r="A470" s="9">
+        <v>0</v>
+      </c>
+      <c r="B470" s="9">
+        <v>20191105</v>
+      </c>
+      <c r="C470" s="9">
+        <v>8</v>
+      </c>
+      <c r="D470" s="9">
+        <v>6</v>
+      </c>
+      <c r="E470" s="9">
+        <v>20</v>
+      </c>
+      <c r="F470" s="9">
+        <v>23</v>
+      </c>
+      <c r="G470" s="9">
+        <v>0</v>
+      </c>
+      <c r="H470" s="9">
+        <v>3</v>
+      </c>
+      <c r="I470" s="9">
+        <v>0</v>
+      </c>
+      <c r="J470" s="9">
+        <v>0</v>
+      </c>
+      <c r="K470" s="9">
+        <v>1</v>
+      </c>
+      <c r="L470" s="9">
+        <v>7</v>
+      </c>
+      <c r="M470" s="9">
+        <v>0</v>
+      </c>
+      <c r="N470" s="9">
+        <v>1</v>
+      </c>
+      <c r="O470" s="9">
+        <v>7</v>
+      </c>
+      <c r="P470" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q470" s="9">
+        <v>0</v>
+      </c>
+      <c r="R470" s="9">
+        <v>0</v>
+      </c>
+      <c r="S470" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="T470" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="U470" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="V470" s="9" t="s">
+        <v>1442</v>
+      </c>
+      <c r="W470" s="9">
+        <v>3</v>
+      </c>
+      <c r="X470" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:24" s="9" customFormat="1">
+      <c r="A471" s="9">
+        <v>0</v>
+      </c>
+      <c r="B471" s="9">
+        <v>20191106</v>
+      </c>
+      <c r="C471" s="9">
+        <v>7</v>
+      </c>
+      <c r="D471" s="9">
+        <v>5</v>
+      </c>
+      <c r="E471" s="9">
+        <v>21</v>
+      </c>
+      <c r="F471" s="9">
+        <v>23</v>
+      </c>
+      <c r="G471" s="9">
+        <v>1</v>
+      </c>
+      <c r="H471" s="9">
+        <v>2</v>
+      </c>
+      <c r="I471" s="9">
+        <v>0</v>
+      </c>
+      <c r="J471" s="9">
+        <v>0</v>
+      </c>
+      <c r="K471" s="9">
+        <v>0</v>
+      </c>
+      <c r="L471" s="9">
+        <v>8</v>
+      </c>
+      <c r="M471" s="9">
+        <v>0</v>
+      </c>
+      <c r="N471" s="9">
+        <v>2</v>
+      </c>
+      <c r="O471" s="9">
+        <v>6</v>
+      </c>
+      <c r="P471" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q471" s="9">
+        <v>0</v>
+      </c>
+      <c r="R471" s="9">
+        <v>0</v>
+      </c>
+      <c r="S471" s="9" t="s">
+        <v>1443</v>
+      </c>
+      <c r="T471" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="U471" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="V471" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="W471" s="9">
+        <v>2</v>
+      </c>
+      <c r="X471" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:24" s="9" customFormat="1">
+      <c r="A472" s="9">
+        <v>0</v>
+      </c>
+      <c r="B472" s="9">
+        <v>20191107</v>
+      </c>
+      <c r="C472" s="9">
+        <v>6</v>
+      </c>
+      <c r="D472" s="9">
+        <v>4</v>
+      </c>
+      <c r="E472" s="9">
+        <v>31</v>
+      </c>
+      <c r="F472" s="9">
+        <v>36</v>
+      </c>
+      <c r="G472" s="9">
+        <v>0</v>
+      </c>
+      <c r="H472" s="9">
+        <v>5</v>
+      </c>
+      <c r="I472" s="9">
+        <v>0</v>
+      </c>
+      <c r="J472" s="9">
+        <v>0</v>
+      </c>
+      <c r="K472" s="9">
+        <v>0</v>
+      </c>
+      <c r="L472" s="9">
+        <v>7</v>
+      </c>
+      <c r="M472" s="9">
+        <v>0</v>
+      </c>
+      <c r="N472" s="9">
+        <v>1</v>
+      </c>
+      <c r="O472" s="9">
+        <v>2</v>
+      </c>
+      <c r="P472" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q472" s="9">
+        <v>0</v>
+      </c>
+      <c r="R472" s="9">
+        <v>0</v>
+      </c>
+      <c r="S472" s="9" t="s">
+        <v>1445</v>
+      </c>
+      <c r="T472" s="9" t="s">
+        <v>1446</v>
+      </c>
+      <c r="U472" s="9" t="s">
+        <v>1447</v>
+      </c>
+      <c r="V472" s="9" t="s">
+        <v>1446</v>
+      </c>
+      <c r="W472" s="9">
+        <v>2</v>
+      </c>
+      <c r="X472" s="9">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/static/xls/latest.xlsx
+++ b/src/main/resources/static/xls/latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="1448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1452">
   <si>
     <t>date</t>
   </si>
@@ -4358,6 +4358,18 @@
   </si>
   <si>
     <t>1-正邦科技-002157.SZ-实体-江西-7.0</t>
+  </si>
+  <si>
+    <t>2-安德利-603031.SH-实体-nan-5.0</t>
+  </si>
+  <si>
+    <t>1-大东方-600327.SH-实体-nan-10.0</t>
+  </si>
+  <si>
+    <t>2-四川双马-000935.SZ-实体-nan-4.0</t>
+  </si>
+  <si>
+    <t>1-江苏索普-600746.SH-实体-nan-10.0</t>
   </si>
 </sst>
 </file>
@@ -5353,11 +5365,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X472"/>
+  <dimension ref="A1:X473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J475" sqref="J475"/>
+      <selection pane="bottomLeft" activeCell="S477" sqref="S477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -40291,6 +40303,80 @@
         <v>2</v>
       </c>
       <c r="X472" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:24" s="9" customFormat="1">
+      <c r="A473" s="9">
+        <v>0</v>
+      </c>
+      <c r="B473" s="9">
+        <v>20191108</v>
+      </c>
+      <c r="C473" s="9">
+        <v>8</v>
+      </c>
+      <c r="D473" s="9">
+        <v>6</v>
+      </c>
+      <c r="E473" s="9">
+        <v>28</v>
+      </c>
+      <c r="F473" s="9">
+        <v>31</v>
+      </c>
+      <c r="G473" s="9">
+        <v>1</v>
+      </c>
+      <c r="H473" s="9">
+        <v>3</v>
+      </c>
+      <c r="I473" s="9">
+        <v>0</v>
+      </c>
+      <c r="J473" s="9">
+        <v>0</v>
+      </c>
+      <c r="K473" s="9">
+        <v>0</v>
+      </c>
+      <c r="L473" s="9">
+        <v>2</v>
+      </c>
+      <c r="M473" s="9">
+        <v>0</v>
+      </c>
+      <c r="N473" s="9">
+        <v>0</v>
+      </c>
+      <c r="O473" s="9">
+        <v>0</v>
+      </c>
+      <c r="P473" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q473" s="9">
+        <v>0</v>
+      </c>
+      <c r="R473" s="9">
+        <v>0</v>
+      </c>
+      <c r="S473" s="9" t="s">
+        <v>1448</v>
+      </c>
+      <c r="T473" s="9" t="s">
+        <v>1449</v>
+      </c>
+      <c r="U473" s="9" t="s">
+        <v>1450</v>
+      </c>
+      <c r="V473" s="9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="W473" s="9">
+        <v>1</v>
+      </c>
+      <c r="X473" s="9">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/static/xls/latest.xlsx
+++ b/src/main/resources/static/xls/latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="1476">
   <si>
     <t>date</t>
   </si>
@@ -4360,16 +4360,88 @@
     <t>1-正邦科技-002157.SZ-实体-江西-7.0</t>
   </si>
   <si>
-    <t>2-安德利-603031.SH-实体-nan-5.0</t>
-  </si>
-  <si>
-    <t>1-大东方-600327.SH-实体-nan-10.0</t>
-  </si>
-  <si>
-    <t>2-四川双马-000935.SZ-实体-nan-4.0</t>
-  </si>
-  <si>
-    <t>1-江苏索普-600746.SH-实体-nan-10.0</t>
+    <t>2-四川双马-000935.SZ-实体-四川-11.0</t>
+  </si>
+  <si>
+    <t>2-意华股份-002897.SZ-实体-浙江-10.0</t>
+  </si>
+  <si>
+    <t>3-先进数通-300541.SZ-实体-北京-13.0</t>
+  </si>
+  <si>
+    <t>2-九鼎新材-002201.SZ-实体-江苏-21.0</t>
+  </si>
+  <si>
+    <t>3-得利斯-002330.SZ-实体-山东-7.0</t>
+  </si>
+  <si>
+    <t>2-南风股份-300004.SZ-实体-广东-20.0</t>
+  </si>
+  <si>
+    <t>4-得利斯-002330.SZ-实体-山东-12.0</t>
+  </si>
+  <si>
+    <t>3-宝鼎科技-002552.SZ-实体-浙江-28.0</t>
+  </si>
+  <si>
+    <t>1-北方华创-002371.SZ-实体-北京-5.0</t>
+  </si>
+  <si>
+    <t>4-宝鼎科技-002552.SZ-实体-浙江-40.0</t>
+  </si>
+  <si>
+    <t>1-八方股份-603489.SH-实体-江苏-6.0</t>
+  </si>
+  <si>
+    <t>3-神马电力-603530.SH-实体-江苏-22.0</t>
+  </si>
+  <si>
+    <t>5-宝鼎科技-002552.SZ-实体-浙江-48.0</t>
+  </si>
+  <si>
+    <t>1-九鼎新材-002201.SZ-实体-江苏-11.0</t>
+  </si>
+  <si>
+    <t>2-诚迈科技-300598.SZ-实体-江苏-22.0</t>
+  </si>
+  <si>
+    <t>3-鼎龙文化-002502.SZ-实体-广东-22.0</t>
+  </si>
+  <si>
+    <t>1-八方股份-603489.SH-实体-江苏-5.0</t>
+  </si>
+  <si>
+    <t>3-香山股份-002870.SZ-实体-广东-11.0</t>
+  </si>
+  <si>
+    <t>4-鼎龙文化-002502.SZ-实体-广东-35.0</t>
+  </si>
+  <si>
+    <t>1-华友钴业-603799.SH-实体-浙江-11.0</t>
+  </si>
+  <si>
+    <t>3-盛天网络-300494.SZ-实体-湖北-23.0</t>
+  </si>
+  <si>
+    <t>5-鼎龙文化-002502.SZ-实体-广东-36.0</t>
+  </si>
+  <si>
+    <t>1-四维图新-002405.SZ-实体-北京-4.0</t>
+  </si>
+  <si>
+    <t>1-万达信息-300168.SZ-实体-上海-8.0</t>
+  </si>
+  <si>
+    <t>2-宏达矿业-600532.SH-实体-上海-15.0</t>
+  </si>
+  <si>
+    <t>5-麦克奥迪-300341.SZ-非实体-福建-0.0</t>
+  </si>
+  <si>
+    <t>1-春兴精工-002547.SZ-实体-江苏-8.0</t>
+  </si>
+  <si>
+    <t>3-聚力文化-002247.SZ-实体-浙江-28.0</t>
   </si>
 </sst>
 </file>
@@ -5365,11 +5437,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X473"/>
+  <dimension ref="A1:X482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S477" sqref="S477"/>
+      <pane ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A473" sqref="A473:XFD482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -40335,13 +40407,13 @@
         <v>0</v>
       </c>
       <c r="J473" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K473" s="9">
         <v>0</v>
       </c>
       <c r="L473" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M473" s="9">
         <v>0</v>
@@ -40350,33 +40422,699 @@
         <v>0</v>
       </c>
       <c r="O473" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P473" s="9">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q473" s="9">
         <v>0</v>
       </c>
       <c r="R473" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S473" s="9" t="s">
         <v>1448</v>
       </c>
-      <c r="T473" s="9" t="s">
+      <c r="T473" s="9">
+        <v>0</v>
+      </c>
+      <c r="U473" s="9" t="s">
+        <v>1448</v>
+      </c>
+      <c r="V473" s="9" t="s">
         <v>1449</v>
       </c>
-      <c r="U473" s="9" t="s">
+      <c r="W473" s="9">
+        <v>0</v>
+      </c>
+      <c r="X473" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:24" s="9" customFormat="1">
+      <c r="A474" s="9">
+        <v>0</v>
+      </c>
+      <c r="B474" s="9">
+        <v>20191111</v>
+      </c>
+      <c r="C474" s="9">
+        <v>5</v>
+      </c>
+      <c r="D474" s="9">
+        <v>3</v>
+      </c>
+      <c r="E474" s="9">
+        <v>15</v>
+      </c>
+      <c r="F474" s="9">
+        <v>22</v>
+      </c>
+      <c r="G474" s="9">
+        <v>1</v>
+      </c>
+      <c r="H474" s="9">
+        <v>7</v>
+      </c>
+      <c r="I474" s="9">
+        <v>0</v>
+      </c>
+      <c r="J474" s="9">
+        <v>2</v>
+      </c>
+      <c r="K474" s="9">
+        <v>1</v>
+      </c>
+      <c r="L474" s="9">
+        <v>8</v>
+      </c>
+      <c r="M474" s="9">
+        <v>0</v>
+      </c>
+      <c r="N474" s="9">
+        <v>1</v>
+      </c>
+      <c r="O474" s="9">
+        <v>12</v>
+      </c>
+      <c r="P474" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q474" s="9">
+        <v>0</v>
+      </c>
+      <c r="R474" s="9">
+        <v>2</v>
+      </c>
+      <c r="S474" s="9" t="s">
         <v>1450</v>
       </c>
-      <c r="V473" s="9" t="s">
+      <c r="T474" s="9" t="s">
         <v>1451</v>
       </c>
-      <c r="W473" s="9">
-        <v>1</v>
-      </c>
-      <c r="X473" s="9">
+      <c r="U474" s="9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="V474" s="9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="W474" s="9">
+        <v>1</v>
+      </c>
+      <c r="X474" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:24" s="9" customFormat="1">
+      <c r="A475" s="9">
+        <v>0</v>
+      </c>
+      <c r="B475" s="9">
+        <v>20191112</v>
+      </c>
+      <c r="C475" s="9">
+        <v>8</v>
+      </c>
+      <c r="D475" s="9">
+        <v>4</v>
+      </c>
+      <c r="E475" s="9">
+        <v>26</v>
+      </c>
+      <c r="F475" s="9">
+        <v>32</v>
+      </c>
+      <c r="G475" s="9">
+        <v>0</v>
+      </c>
+      <c r="H475" s="9">
+        <v>6</v>
+      </c>
+      <c r="I475" s="9">
+        <v>0</v>
+      </c>
+      <c r="J475" s="9">
+        <v>0</v>
+      </c>
+      <c r="K475" s="9">
+        <v>0</v>
+      </c>
+      <c r="L475" s="9">
+        <v>5</v>
+      </c>
+      <c r="M475" s="9">
+        <v>0</v>
+      </c>
+      <c r="N475" s="9">
+        <v>2</v>
+      </c>
+      <c r="O475" s="9">
+        <v>4</v>
+      </c>
+      <c r="P475" s="9">
+        <v>17</v>
+      </c>
+      <c r="Q475" s="9">
+        <v>0</v>
+      </c>
+      <c r="R475" s="9">
+        <v>0</v>
+      </c>
+      <c r="S475" s="9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="T475" s="9">
+        <v>0</v>
+      </c>
+      <c r="U475" s="9">
+        <v>0</v>
+      </c>
+      <c r="V475" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="W475" s="9">
+        <v>0</v>
+      </c>
+      <c r="X475" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:24" s="9" customFormat="1">
+      <c r="A476" s="9">
+        <v>0</v>
+      </c>
+      <c r="B476" s="9">
+        <v>20191113</v>
+      </c>
+      <c r="C476" s="9">
+        <v>9</v>
+      </c>
+      <c r="D476" s="9">
+        <v>5</v>
+      </c>
+      <c r="E476" s="9">
+        <v>26</v>
+      </c>
+      <c r="F476" s="9">
+        <v>31</v>
+      </c>
+      <c r="G476" s="9">
+        <v>1</v>
+      </c>
+      <c r="H476" s="9">
+        <v>5</v>
+      </c>
+      <c r="I476" s="9">
+        <v>0</v>
+      </c>
+      <c r="J476" s="9">
+        <v>2</v>
+      </c>
+      <c r="K476" s="9">
+        <v>1</v>
+      </c>
+      <c r="L476" s="9">
+        <v>8</v>
+      </c>
+      <c r="M476" s="9">
+        <v>0</v>
+      </c>
+      <c r="N476" s="9">
+        <v>1</v>
+      </c>
+      <c r="O476" s="9">
+        <v>10</v>
+      </c>
+      <c r="P476" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q476" s="9">
+        <v>0</v>
+      </c>
+      <c r="R476" s="9">
+        <v>1</v>
+      </c>
+      <c r="S476" s="9" t="s">
+        <v>1454</v>
+      </c>
+      <c r="T476" s="9" t="s">
+        <v>1455</v>
+      </c>
+      <c r="U476" s="9" t="s">
+        <v>1456</v>
+      </c>
+      <c r="V476" s="9" t="s">
+        <v>1455</v>
+      </c>
+      <c r="W476" s="9">
+        <v>4</v>
+      </c>
+      <c r="X476" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:24" s="9" customFormat="1">
+      <c r="A477" s="9">
+        <v>0</v>
+      </c>
+      <c r="B477" s="9">
+        <v>20191114</v>
+      </c>
+      <c r="C477" s="9">
+        <v>10</v>
+      </c>
+      <c r="D477" s="9">
+        <v>6</v>
+      </c>
+      <c r="E477" s="9">
+        <v>36</v>
+      </c>
+      <c r="F477" s="9">
+        <v>41</v>
+      </c>
+      <c r="G477" s="9">
+        <v>1</v>
+      </c>
+      <c r="H477" s="9">
+        <v>5</v>
+      </c>
+      <c r="I477" s="9">
+        <v>0</v>
+      </c>
+      <c r="J477" s="9">
+        <v>0</v>
+      </c>
+      <c r="K477" s="9">
+        <v>2</v>
+      </c>
+      <c r="L477" s="9">
+        <v>9</v>
+      </c>
+      <c r="M477" s="9">
+        <v>0</v>
+      </c>
+      <c r="N477" s="9">
+        <v>2</v>
+      </c>
+      <c r="O477" s="9">
+        <v>3</v>
+      </c>
+      <c r="P477" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q477" s="9">
+        <v>0</v>
+      </c>
+      <c r="R477" s="9">
+        <v>0</v>
+      </c>
+      <c r="S477" s="9" t="s">
+        <v>1457</v>
+      </c>
+      <c r="T477" s="9" t="s">
+        <v>1458</v>
+      </c>
+      <c r="U477" s="9" t="s">
+        <v>1458</v>
+      </c>
+      <c r="V477" s="9" t="s">
+        <v>1459</v>
+      </c>
+      <c r="W477" s="9">
+        <v>2</v>
+      </c>
+      <c r="X477" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:24" s="9" customFormat="1">
+      <c r="A478" s="9">
+        <v>0</v>
+      </c>
+      <c r="B478" s="9">
+        <v>20191115</v>
+      </c>
+      <c r="C478" s="9">
+        <v>8</v>
+      </c>
+      <c r="D478" s="9">
+        <v>5</v>
+      </c>
+      <c r="E478" s="9">
+        <v>24</v>
+      </c>
+      <c r="F478" s="9">
+        <v>29</v>
+      </c>
+      <c r="G478" s="9">
+        <v>1</v>
+      </c>
+      <c r="H478" s="9">
+        <v>5</v>
+      </c>
+      <c r="I478" s="9">
+        <v>0</v>
+      </c>
+      <c r="J478" s="9">
+        <v>1</v>
+      </c>
+      <c r="K478" s="9">
+        <v>2</v>
+      </c>
+      <c r="L478" s="9">
+        <v>10</v>
+      </c>
+      <c r="M478" s="9">
+        <v>0</v>
+      </c>
+      <c r="N478" s="9">
+        <v>1</v>
+      </c>
+      <c r="O478" s="9">
+        <v>22</v>
+      </c>
+      <c r="P478" s="9">
+        <v>14</v>
+      </c>
+      <c r="Q478" s="9">
+        <v>0</v>
+      </c>
+      <c r="R478" s="9">
+        <v>0</v>
+      </c>
+      <c r="S478" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="T478" s="9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="U478" s="9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="V478" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="W478" s="9">
+        <v>2</v>
+      </c>
+      <c r="X478" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:24" s="9" customFormat="1">
+      <c r="A479" s="9">
+        <v>0</v>
+      </c>
+      <c r="B479" s="9">
+        <v>20191118</v>
+      </c>
+      <c r="C479" s="9">
+        <v>9</v>
+      </c>
+      <c r="D479" s="9">
+        <v>4</v>
+      </c>
+      <c r="E479" s="9">
+        <v>31</v>
+      </c>
+      <c r="F479" s="9">
+        <v>39</v>
+      </c>
+      <c r="G479" s="9">
+        <v>1</v>
+      </c>
+      <c r="H479" s="9">
+        <v>8</v>
+      </c>
+      <c r="I479" s="9">
+        <v>0</v>
+      </c>
+      <c r="J479" s="9">
+        <v>1</v>
+      </c>
+      <c r="K479" s="9">
+        <v>0</v>
+      </c>
+      <c r="L479" s="9">
+        <v>8</v>
+      </c>
+      <c r="M479" s="9">
+        <v>0</v>
+      </c>
+      <c r="N479" s="9">
+        <v>1</v>
+      </c>
+      <c r="O479" s="9">
+        <v>4</v>
+      </c>
+      <c r="P479" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q479" s="9">
+        <v>0</v>
+      </c>
+      <c r="R479" s="9">
+        <v>0</v>
+      </c>
+      <c r="S479" s="9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="T479" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="U479" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="V479" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="W479" s="9">
+        <v>3</v>
+      </c>
+      <c r="X479" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:24" s="9" customFormat="1">
+      <c r="A480" s="9">
+        <v>0</v>
+      </c>
+      <c r="B480" s="9">
+        <v>20191119</v>
+      </c>
+      <c r="C480" s="9">
+        <v>12</v>
+      </c>
+      <c r="D480" s="9">
+        <v>6</v>
+      </c>
+      <c r="E480" s="9">
+        <v>50</v>
+      </c>
+      <c r="F480" s="9">
+        <v>59</v>
+      </c>
+      <c r="G480" s="9">
+        <v>0</v>
+      </c>
+      <c r="H480" s="9">
+        <v>9</v>
+      </c>
+      <c r="I480" s="9">
+        <v>0</v>
+      </c>
+      <c r="J480" s="9">
+        <v>0</v>
+      </c>
+      <c r="K480" s="9">
+        <v>0</v>
+      </c>
+      <c r="L480" s="9">
+        <v>9</v>
+      </c>
+      <c r="M480" s="9">
+        <v>0</v>
+      </c>
+      <c r="N480" s="9">
+        <v>0</v>
+      </c>
+      <c r="O480" s="9">
+        <v>0</v>
+      </c>
+      <c r="P480" s="9">
+        <v>14</v>
+      </c>
+      <c r="Q480" s="9">
+        <v>0</v>
+      </c>
+      <c r="R480" s="9">
+        <v>2</v>
+      </c>
+      <c r="S480" s="9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="T480" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="U480" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="V480" s="9" t="s">
+        <v>1468</v>
+      </c>
+      <c r="W480" s="9">
+        <v>5</v>
+      </c>
+      <c r="X480" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:24" s="9" customFormat="1">
+      <c r="A481" s="9">
+        <v>0</v>
+      </c>
+      <c r="B481" s="9">
+        <v>20191120</v>
+      </c>
+      <c r="C481" s="9">
+        <v>14</v>
+      </c>
+      <c r="D481" s="9">
+        <v>7</v>
+      </c>
+      <c r="E481" s="9">
+        <v>28</v>
+      </c>
+      <c r="F481" s="9">
+        <v>37</v>
+      </c>
+      <c r="G481" s="9">
+        <v>1</v>
+      </c>
+      <c r="H481" s="9">
+        <v>9</v>
+      </c>
+      <c r="I481" s="9">
+        <v>0</v>
+      </c>
+      <c r="J481" s="9">
+        <v>1</v>
+      </c>
+      <c r="K481" s="9">
+        <v>0</v>
+      </c>
+      <c r="L481" s="9">
+        <v>12</v>
+      </c>
+      <c r="M481" s="9">
+        <v>0</v>
+      </c>
+      <c r="N481" s="9">
+        <v>1</v>
+      </c>
+      <c r="O481" s="9">
+        <v>3</v>
+      </c>
+      <c r="P481" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q481" s="9">
+        <v>0</v>
+      </c>
+      <c r="R481" s="9">
+        <v>1</v>
+      </c>
+      <c r="S481" s="9" t="s">
+        <v>1469</v>
+      </c>
+      <c r="T481" s="9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="U481" s="9" t="s">
+        <v>1471</v>
+      </c>
+      <c r="V481" s="9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="W481" s="9">
+        <v>3</v>
+      </c>
+      <c r="X481" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:24" s="9" customFormat="1">
+      <c r="A482" s="9">
+        <v>0</v>
+      </c>
+      <c r="B482" s="9">
+        <v>20191121</v>
+      </c>
+      <c r="C482" s="9">
+        <v>10</v>
+      </c>
+      <c r="D482" s="9">
+        <v>6</v>
+      </c>
+      <c r="E482" s="9">
+        <v>24</v>
+      </c>
+      <c r="F482" s="9">
+        <v>29</v>
+      </c>
+      <c r="G482" s="9">
+        <v>2</v>
+      </c>
+      <c r="H482" s="9">
+        <v>5</v>
+      </c>
+      <c r="I482" s="9">
+        <v>0</v>
+      </c>
+      <c r="J482" s="9">
+        <v>0</v>
+      </c>
+      <c r="K482" s="9">
+        <v>1</v>
+      </c>
+      <c r="L482" s="9">
+        <v>14</v>
+      </c>
+      <c r="M482" s="9">
+        <v>0</v>
+      </c>
+      <c r="N482" s="9">
+        <v>1</v>
+      </c>
+      <c r="O482" s="9">
+        <v>2</v>
+      </c>
+      <c r="P482" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q482" s="9">
+        <v>0</v>
+      </c>
+      <c r="R482" s="9">
+        <v>2</v>
+      </c>
+      <c r="S482" s="9" t="s">
+        <v>1473</v>
+      </c>
+      <c r="T482" s="9" t="s">
+        <v>1474</v>
+      </c>
+      <c r="U482" s="9" t="s">
+        <v>1474</v>
+      </c>
+      <c r="V482" s="9" t="s">
+        <v>1475</v>
+      </c>
+      <c r="W482" s="9">
+        <v>1</v>
+      </c>
+      <c r="X482" s="9">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/static/xls/latest.xlsx
+++ b/src/main/resources/static/xls/latest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="60" windowWidth="16248" windowHeight="5760"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="16245" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="20190422-20171101" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="1479">
   <si>
     <t>date</t>
   </si>
@@ -4442,6 +4442,18 @@
   </si>
   <si>
     <t>3-聚力文化-002247.SZ-实体-浙江-28.0</t>
+  </si>
+  <si>
+    <t>6-麦克奥迪-300341.SZ-非实体-福建-0.0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-麦克奥迪-300341.SZ-非实体-福建-0.0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中迪投资</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5437,19 +5449,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X482"/>
+  <dimension ref="A1:X487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A473" sqref="A473:XFD482"/>
+      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S486" sqref="S486"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="37.77734375" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="37.75" customWidth="1"/>
+    <col min="20" max="20" width="11.375" customWidth="1"/>
     <col min="22" max="22" width="39" customWidth="1"/>
   </cols>
   <sheetData>
@@ -41118,9 +41131,73 @@
         <v>0</v>
       </c>
     </row>
+    <row r="483" spans="1:24">
+      <c r="A483">
+        <v>0</v>
+      </c>
+      <c r="B483">
+        <v>20191122</v>
+      </c>
+      <c r="C483">
+        <v>12</v>
+      </c>
+      <c r="S483" s="9" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="484" spans="1:24">
+      <c r="A484">
+        <v>0</v>
+      </c>
+      <c r="B484">
+        <v>20191125</v>
+      </c>
+      <c r="C484">
+        <v>14</v>
+      </c>
+      <c r="S484" s="9" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="485" spans="1:24">
+      <c r="A485">
+        <v>0</v>
+      </c>
+      <c r="B485">
+        <v>20191126</v>
+      </c>
+      <c r="C485">
+        <v>10</v>
+      </c>
+      <c r="S485" s="9" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="486" spans="1:24">
+      <c r="A486">
+        <v>0</v>
+      </c>
+      <c r="B486">
+        <v>20191127</v>
+      </c>
+      <c r="C486">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:24">
+      <c r="A487">
+        <v>0</v>
+      </c>
+      <c r="B487">
+        <v>20191128</v>
+      </c>
+      <c r="C487">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C489:C1048576 C1:C487">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>

--- a/src/main/resources/static/xls/latest.xlsx
+++ b/src/main/resources/static/xls/latest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="16245" windowHeight="5760"/>
+    <workbookView xWindow="396" yWindow="60" windowWidth="16248" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="20190422-20171101" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="1506">
   <si>
     <t>date</t>
   </si>
@@ -4449,11 +4449,90 @@
   </si>
   <si>
     <t>7-麦克奥迪-300341.SZ-非实体-福建-0.0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>中迪投资</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-华新水泥-600801.SH-实体-湖北-8.0</t>
+  </si>
+  <si>
+    <t>5-长城动漫-000835.SZ-实体-四川-41.0</t>
+  </si>
+  <si>
+    <t>中迪投资&amp;000609.SZ&amp;-0.0***</t>
+  </si>
+  <si>
+    <t>4-中迪投资-000609.SZ-实体-北京-10.0</t>
+  </si>
+  <si>
+    <t>1-北信源-300352.SZ-实体-北京-10.0</t>
+  </si>
+  <si>
+    <t>4-贵人鸟-603555.SH-实体-福建-18.0</t>
+  </si>
+  <si>
+    <t>3-四川金顶-600678.SH-实体-四川-18.0</t>
+  </si>
+  <si>
+    <t>1-闻泰科技-600745.SH-实体-湖北-12.0</t>
+  </si>
+  <si>
+    <t>2-天成自控-603085.SH-实体-浙江-15.0</t>
+  </si>
+  <si>
+    <t>2-海联讯-300277.SZ-实体-深圳-14.0</t>
+  </si>
+  <si>
+    <t>1-佳禾智能-300793.SZ-实体-广东-8.0</t>
+  </si>
+  <si>
+    <t>2-青海华鼎-600243.SH-实体-青海-12.0</t>
+  </si>
+  <si>
+    <t>3-青海华鼎-600243.SH-实体-青海-14.0</t>
+  </si>
+  <si>
+    <t>2-美达股份-000782.SZ-实体-广东-19.0</t>
+  </si>
+  <si>
+    <t>4-青海华鼎-600243.SH-实体-青海-18.0</t>
+  </si>
+  <si>
+    <t>1-共达电声-002655.SZ-实体-山东-4.0</t>
+  </si>
+  <si>
+    <t>3-龙星化工-002442.SZ-实体-河北-24.0</t>
+  </si>
+  <si>
+    <t>3-华森制药-002907.SZ-实体-重庆-7.0</t>
+  </si>
+  <si>
+    <t>3-万通智控-300643.SZ-实体-浙江-28.0</t>
+  </si>
+  <si>
+    <t>4-万通智控-300643.SZ-实体-浙江-31.0</t>
+  </si>
+  <si>
+    <t>1-漫步者-002351.SZ-实体-深圳-10.0</t>
+  </si>
+  <si>
+    <t>2-德宏股份-603701.SH-实体-浙江-15.0</t>
+  </si>
+  <si>
+    <t>5-万通智控-300643.SZ-实体-浙江-32.0</t>
+  </si>
+  <si>
+    <t>1-麦克奥迪-300341.SZ-实体-福建-8.0</t>
+  </si>
+  <si>
+    <t>3-泉峰汽车-603982.SH-实体-江苏-20.0</t>
+  </si>
+  <si>
+    <t>6-万通智控-300643.SZ-实体-浙江-37.0</t>
+  </si>
+  <si>
+    <t>3-漫步者-002351.SZ-实体-深圳-19.0</t>
+  </si>
+  <si>
+    <t>1-水晶光电-002273.SZ-实体-浙江-8.0</t>
   </si>
 </sst>
 </file>
@@ -5449,20 +5528,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X487"/>
+  <dimension ref="A1:X493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S486" sqref="S486"/>
+      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K489" sqref="K489"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="37.75" customWidth="1"/>
-    <col min="20" max="20" width="11.375" customWidth="1"/>
+    <col min="19" max="19" width="37.77734375" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
     <col min="22" max="22" width="39" customWidth="1"/>
   </cols>
   <sheetData>
@@ -41145,54 +41224,744 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="484" spans="1:24">
-      <c r="A484">
-        <v>0</v>
-      </c>
-      <c r="B484">
+    <row r="484" spans="1:24" s="9" customFormat="1">
+      <c r="A484" s="9">
+        <v>0</v>
+      </c>
+      <c r="B484" s="9">
         <v>20191125</v>
       </c>
-      <c r="C484">
+      <c r="C484" s="9">
         <v>14</v>
+      </c>
+      <c r="D484" s="9">
+        <v>10</v>
+      </c>
+      <c r="E484" s="9">
+        <v>32</v>
+      </c>
+      <c r="F484" s="9">
+        <v>38</v>
+      </c>
+      <c r="G484" s="9">
+        <v>3</v>
+      </c>
+      <c r="H484" s="9">
+        <v>6</v>
+      </c>
+      <c r="I484" s="9">
+        <v>1</v>
+      </c>
+      <c r="J484" s="9">
+        <v>0</v>
+      </c>
+      <c r="K484" s="9">
+        <v>1</v>
+      </c>
+      <c r="L484" s="9">
+        <v>12</v>
+      </c>
+      <c r="M484" s="9">
+        <v>0</v>
+      </c>
+      <c r="N484" s="9">
+        <v>5</v>
+      </c>
+      <c r="O484" s="9">
+        <v>29</v>
+      </c>
+      <c r="P484" s="9">
+        <v>13</v>
+      </c>
+      <c r="Q484" s="9">
+        <v>0</v>
+      </c>
+      <c r="R484" s="9">
+        <v>1</v>
       </c>
       <c r="S484" s="9" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="485" spans="1:24">
-      <c r="A485">
-        <v>0</v>
-      </c>
-      <c r="B485">
+      <c r="T484" s="9" t="s">
+        <v>1478</v>
+      </c>
+      <c r="U484" s="9">
+        <v>0</v>
+      </c>
+      <c r="V484" s="9" t="s">
+        <v>1479</v>
+      </c>
+      <c r="W484" s="9">
+        <v>2</v>
+      </c>
+      <c r="X484" s="9" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="485" spans="1:24" s="9" customFormat="1">
+      <c r="A485" s="9">
+        <v>0</v>
+      </c>
+      <c r="B485" s="9">
         <v>20191126</v>
       </c>
-      <c r="C485">
+      <c r="C485" s="9">
         <v>10</v>
       </c>
+      <c r="D485" s="9">
+        <v>6</v>
+      </c>
+      <c r="E485" s="9">
+        <v>20</v>
+      </c>
+      <c r="F485" s="9">
+        <v>27</v>
+      </c>
+      <c r="G485" s="9">
+        <v>0</v>
+      </c>
+      <c r="H485" s="9">
+        <v>7</v>
+      </c>
+      <c r="I485" s="9">
+        <v>0</v>
+      </c>
+      <c r="J485" s="9">
+        <v>1</v>
+      </c>
+      <c r="K485" s="9">
+        <v>0</v>
+      </c>
+      <c r="L485" s="9">
+        <v>14</v>
+      </c>
+      <c r="M485" s="9">
+        <v>0</v>
+      </c>
+      <c r="N485" s="9">
+        <v>2</v>
+      </c>
+      <c r="O485" s="9">
+        <v>11</v>
+      </c>
+      <c r="P485" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q485" s="9">
+        <v>0</v>
+      </c>
+      <c r="R485" s="9">
+        <v>0</v>
+      </c>
       <c r="S485" s="9" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="486" spans="1:24">
-      <c r="A486">
-        <v>0</v>
-      </c>
-      <c r="B486">
+        <v>1481</v>
+      </c>
+      <c r="T485" s="9" t="s">
+        <v>1482</v>
+      </c>
+      <c r="U485" s="9" t="s">
+        <v>1482</v>
+      </c>
+      <c r="V485" s="9" t="s">
+        <v>1483</v>
+      </c>
+      <c r="W485" s="9">
+        <v>1</v>
+      </c>
+      <c r="X485" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:24" s="9" customFormat="1">
+      <c r="A486" s="9">
+        <v>0</v>
+      </c>
+      <c r="B486" s="9">
         <v>20191127</v>
       </c>
-      <c r="C486">
+      <c r="C486" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="487" spans="1:24">
-      <c r="A487">
-        <v>0</v>
-      </c>
-      <c r="B487">
+      <c r="D486" s="9">
+        <v>4</v>
+      </c>
+      <c r="E486" s="9">
+        <v>18</v>
+      </c>
+      <c r="F486" s="9">
+        <v>23</v>
+      </c>
+      <c r="G486" s="9">
+        <v>3</v>
+      </c>
+      <c r="H486" s="9">
+        <v>5</v>
+      </c>
+      <c r="I486" s="9">
+        <v>0</v>
+      </c>
+      <c r="J486" s="9">
+        <v>1</v>
+      </c>
+      <c r="K486" s="9">
+        <v>0</v>
+      </c>
+      <c r="L486" s="9">
+        <v>10</v>
+      </c>
+      <c r="M486" s="9">
+        <v>0</v>
+      </c>
+      <c r="N486" s="9">
+        <v>0</v>
+      </c>
+      <c r="O486" s="9">
+        <v>7</v>
+      </c>
+      <c r="P486" s="9">
+        <v>13</v>
+      </c>
+      <c r="Q486" s="9">
+        <v>0</v>
+      </c>
+      <c r="R486" s="9">
+        <v>0</v>
+      </c>
+      <c r="S486" s="9" t="s">
+        <v>1484</v>
+      </c>
+      <c r="T486" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="U486" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="V486" s="9" t="s">
+        <v>1486</v>
+      </c>
+      <c r="W486" s="9">
+        <v>3</v>
+      </c>
+      <c r="X486" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:24" s="9" customFormat="1">
+      <c r="A487" s="9">
+        <v>0</v>
+      </c>
+      <c r="B487" s="9">
         <v>20191128</v>
       </c>
-      <c r="C487">
+      <c r="C487" s="9">
         <v>8</v>
+      </c>
+      <c r="D487" s="9">
+        <v>3</v>
+      </c>
+      <c r="E487" s="9">
+        <v>20</v>
+      </c>
+      <c r="F487" s="9">
+        <v>25</v>
+      </c>
+      <c r="G487" s="9">
+        <v>1</v>
+      </c>
+      <c r="H487" s="9">
+        <v>5</v>
+      </c>
+      <c r="I487" s="9">
+        <v>0</v>
+      </c>
+      <c r="J487" s="9">
+        <v>2</v>
+      </c>
+      <c r="K487" s="9">
+        <v>1</v>
+      </c>
+      <c r="L487" s="9">
+        <v>9</v>
+      </c>
+      <c r="M487" s="9">
+        <v>0</v>
+      </c>
+      <c r="N487" s="9">
+        <v>2</v>
+      </c>
+      <c r="O487" s="9">
+        <v>9</v>
+      </c>
+      <c r="P487" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q487" s="9">
+        <v>1</v>
+      </c>
+      <c r="R487" s="9">
+        <v>0</v>
+      </c>
+      <c r="S487" s="9" t="s">
+        <v>1487</v>
+      </c>
+      <c r="T487" s="9" t="s">
+        <v>1488</v>
+      </c>
+      <c r="U487" s="9" t="s">
+        <v>1488</v>
+      </c>
+      <c r="V487" s="9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="W487" s="9">
+        <v>1</v>
+      </c>
+      <c r="X487" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:24" s="9" customFormat="1">
+      <c r="A488" s="9">
+        <v>0</v>
+      </c>
+      <c r="B488" s="9">
+        <v>20191129</v>
+      </c>
+      <c r="C488" s="9">
+        <v>8</v>
+      </c>
+      <c r="D488" s="9">
+        <v>4</v>
+      </c>
+      <c r="E488" s="9">
+        <v>21</v>
+      </c>
+      <c r="F488" s="9">
+        <v>28</v>
+      </c>
+      <c r="G488" s="9">
+        <v>2</v>
+      </c>
+      <c r="H488" s="9">
+        <v>7</v>
+      </c>
+      <c r="I488" s="9">
+        <v>0</v>
+      </c>
+      <c r="J488" s="9">
+        <v>0</v>
+      </c>
+      <c r="K488" s="9">
+        <v>0</v>
+      </c>
+      <c r="L488" s="9">
+        <v>8</v>
+      </c>
+      <c r="M488" s="9">
+        <v>0</v>
+      </c>
+      <c r="N488" s="9">
+        <v>0</v>
+      </c>
+      <c r="O488" s="9">
+        <v>5</v>
+      </c>
+      <c r="P488" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q488" s="9">
+        <v>0</v>
+      </c>
+      <c r="R488" s="9">
+        <v>0</v>
+      </c>
+      <c r="S488" s="9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="T488" s="9">
+        <v>0</v>
+      </c>
+      <c r="U488" s="9">
+        <v>0</v>
+      </c>
+      <c r="V488" s="9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="W488" s="9">
+        <v>0</v>
+      </c>
+      <c r="X488" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:24" s="9" customFormat="1">
+      <c r="A489" s="9">
+        <v>0</v>
+      </c>
+      <c r="B489" s="9">
+        <v>20191202</v>
+      </c>
+      <c r="C489" s="9">
+        <v>9</v>
+      </c>
+      <c r="D489" s="9">
+        <v>5</v>
+      </c>
+      <c r="E489" s="9">
+        <v>22</v>
+      </c>
+      <c r="F489" s="9">
+        <v>29</v>
+      </c>
+      <c r="G489" s="9">
+        <v>1</v>
+      </c>
+      <c r="H489" s="9">
+        <v>7</v>
+      </c>
+      <c r="I489" s="9">
+        <v>0</v>
+      </c>
+      <c r="J489" s="9">
+        <v>0</v>
+      </c>
+      <c r="K489" s="9">
+        <v>1</v>
+      </c>
+      <c r="L489" s="9">
+        <v>8</v>
+      </c>
+      <c r="M489" s="9">
+        <v>0</v>
+      </c>
+      <c r="N489" s="9">
+        <v>0</v>
+      </c>
+      <c r="O489" s="9">
+        <v>3</v>
+      </c>
+      <c r="P489" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q489" s="9">
+        <v>0</v>
+      </c>
+      <c r="R489" s="9">
+        <v>1</v>
+      </c>
+      <c r="S489" s="9" t="s">
+        <v>1492</v>
+      </c>
+      <c r="T489" s="9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="U489" s="9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="V489" s="9" t="s">
+        <v>1494</v>
+      </c>
+      <c r="W489" s="9">
+        <v>2</v>
+      </c>
+      <c r="X489" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:24" s="9" customFormat="1">
+      <c r="A490" s="9">
+        <v>0</v>
+      </c>
+      <c r="B490" s="9">
+        <v>20191203</v>
+      </c>
+      <c r="C490" s="9">
+        <v>8</v>
+      </c>
+      <c r="D490" s="9">
+        <v>4</v>
+      </c>
+      <c r="E490" s="9">
+        <v>28</v>
+      </c>
+      <c r="F490" s="9">
+        <v>36</v>
+      </c>
+      <c r="G490" s="9">
+        <v>0</v>
+      </c>
+      <c r="H490" s="9">
+        <v>8</v>
+      </c>
+      <c r="I490" s="9">
+        <v>0</v>
+      </c>
+      <c r="J490" s="9">
+        <v>1</v>
+      </c>
+      <c r="K490" s="9">
+        <v>0</v>
+      </c>
+      <c r="L490" s="9">
+        <v>9</v>
+      </c>
+      <c r="M490" s="9">
+        <v>0</v>
+      </c>
+      <c r="N490" s="9">
+        <v>1</v>
+      </c>
+      <c r="O490" s="9">
+        <v>3</v>
+      </c>
+      <c r="P490" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q490" s="9">
+        <v>0</v>
+      </c>
+      <c r="R490" s="9">
+        <v>0</v>
+      </c>
+      <c r="S490" s="9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="T490" s="9">
+        <v>0</v>
+      </c>
+      <c r="U490" s="9">
+        <v>0</v>
+      </c>
+      <c r="V490" s="9" t="s">
+        <v>1496</v>
+      </c>
+      <c r="W490" s="9">
+        <v>0</v>
+      </c>
+      <c r="X490" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:24" s="9" customFormat="1">
+      <c r="A491" s="9">
+        <v>0</v>
+      </c>
+      <c r="B491" s="9">
+        <v>20191204</v>
+      </c>
+      <c r="C491" s="9">
+        <v>13</v>
+      </c>
+      <c r="D491" s="9">
+        <v>8</v>
+      </c>
+      <c r="E491" s="9">
+        <v>20</v>
+      </c>
+      <c r="F491" s="9">
+        <v>27</v>
+      </c>
+      <c r="G491" s="9">
+        <v>0</v>
+      </c>
+      <c r="H491" s="9">
+        <v>7</v>
+      </c>
+      <c r="I491" s="9">
+        <v>0</v>
+      </c>
+      <c r="J491" s="9">
+        <v>0</v>
+      </c>
+      <c r="K491" s="9">
+        <v>0</v>
+      </c>
+      <c r="L491" s="9">
+        <v>8</v>
+      </c>
+      <c r="M491" s="9">
+        <v>0</v>
+      </c>
+      <c r="N491" s="9">
+        <v>1</v>
+      </c>
+      <c r="O491" s="9">
+        <v>3</v>
+      </c>
+      <c r="P491" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q491" s="9">
+        <v>0</v>
+      </c>
+      <c r="R491" s="9">
+        <v>1</v>
+      </c>
+      <c r="S491" s="9" t="s">
+        <v>1497</v>
+      </c>
+      <c r="T491" s="9" t="s">
+        <v>1498</v>
+      </c>
+      <c r="U491" s="9" t="s">
+        <v>1498</v>
+      </c>
+      <c r="V491" s="9" t="s">
+        <v>1499</v>
+      </c>
+      <c r="W491" s="9">
+        <v>1</v>
+      </c>
+      <c r="X491" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:24" s="9" customFormat="1">
+      <c r="A492" s="9">
+        <v>0</v>
+      </c>
+      <c r="B492" s="9">
+        <v>20191205</v>
+      </c>
+      <c r="C492" s="9">
+        <v>11</v>
+      </c>
+      <c r="D492" s="9">
+        <v>5</v>
+      </c>
+      <c r="E492" s="9">
+        <v>30</v>
+      </c>
+      <c r="F492" s="9">
+        <v>38</v>
+      </c>
+      <c r="G492" s="9">
+        <v>0</v>
+      </c>
+      <c r="H492" s="9">
+        <v>8</v>
+      </c>
+      <c r="I492" s="9">
+        <v>0</v>
+      </c>
+      <c r="J492" s="9">
+        <v>0</v>
+      </c>
+      <c r="K492" s="9">
+        <v>0</v>
+      </c>
+      <c r="L492" s="9">
+        <v>13</v>
+      </c>
+      <c r="M492" s="9">
+        <v>0</v>
+      </c>
+      <c r="N492" s="9">
+        <v>1</v>
+      </c>
+      <c r="O492" s="9">
+        <v>1</v>
+      </c>
+      <c r="P492" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q492" s="9">
+        <v>0</v>
+      </c>
+      <c r="R492" s="9">
+        <v>0</v>
+      </c>
+      <c r="S492" s="9" t="s">
+        <v>1500</v>
+      </c>
+      <c r="T492" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="U492" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="V492" s="9" t="s">
+        <v>1502</v>
+      </c>
+      <c r="W492" s="9">
+        <v>3</v>
+      </c>
+      <c r="X492" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:24" s="9" customFormat="1">
+      <c r="A493" s="9">
+        <v>0</v>
+      </c>
+      <c r="B493" s="9">
+        <v>20191206</v>
+      </c>
+      <c r="C493" s="9">
+        <v>15</v>
+      </c>
+      <c r="D493" s="9">
+        <v>9</v>
+      </c>
+      <c r="E493" s="9">
+        <v>37</v>
+      </c>
+      <c r="F493" s="9">
+        <v>45</v>
+      </c>
+      <c r="G493" s="9">
+        <v>3</v>
+      </c>
+      <c r="H493" s="9">
+        <v>8</v>
+      </c>
+      <c r="I493" s="9">
+        <v>0</v>
+      </c>
+      <c r="J493" s="9">
+        <v>0</v>
+      </c>
+      <c r="K493" s="9">
+        <v>0</v>
+      </c>
+      <c r="L493" s="9">
+        <v>11</v>
+      </c>
+      <c r="M493" s="9">
+        <v>0</v>
+      </c>
+      <c r="N493" s="9">
+        <v>2</v>
+      </c>
+      <c r="O493" s="9">
+        <v>3</v>
+      </c>
+      <c r="P493" s="9">
+        <v>13</v>
+      </c>
+      <c r="Q493" s="9">
+        <v>0</v>
+      </c>
+      <c r="R493" s="9">
+        <v>0</v>
+      </c>
+      <c r="S493" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="T493" s="9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="U493" s="9" t="s">
+        <v>1505</v>
+      </c>
+      <c r="V493" s="9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="W493" s="9">
+        <v>4</v>
+      </c>
+      <c r="X493" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/xls/latest.xlsx
+++ b/src/main/resources/static/xls/latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="1506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1520">
   <si>
     <t>date</t>
   </si>
@@ -4533,6 +4533,48 @@
   </si>
   <si>
     <t>1-水晶光电-002273.SZ-实体-浙江-8.0</t>
+  </si>
+  <si>
+    <t>4-漫步者-002351.SZ-实体-深圳-23.0</t>
+  </si>
+  <si>
+    <t>1-四方精创-300468.SZ-实体-深圳-12.0</t>
+  </si>
+  <si>
+    <t>3-当代东方-000673.SZ-实体-山西-24.0</t>
+  </si>
+  <si>
+    <t>5-漫步者-002351.SZ-实体-深圳-29.0</t>
+  </si>
+  <si>
+    <t>1-三安光电-600703.SH-实体-湖北-10.0</t>
+  </si>
+  <si>
+    <t>4-劲拓股份-300400.SZ-实体-深圳-9.0</t>
+  </si>
+  <si>
+    <t>6-南宁百货-600712.SH-非实体-广西-11.0</t>
+  </si>
+  <si>
+    <t>3-钢研纳克-300797.SZ-实体-北京-27.0</t>
+  </si>
+  <si>
+    <t>7-南宁百货-600712.SH-非实体-广西-11.0</t>
+  </si>
+  <si>
+    <t>1-聚飞光电-300303.SZ-实体-深圳-12.0</t>
+  </si>
+  <si>
+    <t>3-晶方科技-603005.SH-实体-江苏-19.0</t>
+  </si>
+  <si>
+    <t>8-南宁百货-600712.SH-实体-广西-13.0</t>
+  </si>
+  <si>
+    <t>1-同花顺-300033.SZ-实体-浙江-6.0</t>
+  </si>
+  <si>
+    <t>2-田中精机-300461.SZ-实体-浙江-12.0</t>
   </si>
 </sst>
 </file>
@@ -5528,11 +5570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X493"/>
+  <dimension ref="A1:X498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K489" sqref="K489"/>
+      <pane ySplit="1" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A489" sqref="A489:XFD498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -41961,6 +42003,376 @@
         <v>4</v>
       </c>
       <c r="X493" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:24" s="9" customFormat="1">
+      <c r="A494" s="9">
+        <v>0</v>
+      </c>
+      <c r="B494" s="9">
+        <v>20191209</v>
+      </c>
+      <c r="C494" s="9">
+        <v>14</v>
+      </c>
+      <c r="D494" s="9">
+        <v>9</v>
+      </c>
+      <c r="E494" s="9">
+        <v>24</v>
+      </c>
+      <c r="F494" s="9">
+        <v>30</v>
+      </c>
+      <c r="G494" s="9">
+        <v>1</v>
+      </c>
+      <c r="H494" s="9">
+        <v>6</v>
+      </c>
+      <c r="I494" s="9">
+        <v>0</v>
+      </c>
+      <c r="J494" s="9">
+        <v>0</v>
+      </c>
+      <c r="K494" s="9">
+        <v>0</v>
+      </c>
+      <c r="L494" s="9">
+        <v>15</v>
+      </c>
+      <c r="M494" s="9">
+        <v>0</v>
+      </c>
+      <c r="N494" s="9">
+        <v>1</v>
+      </c>
+      <c r="O494" s="9">
+        <v>4</v>
+      </c>
+      <c r="P494" s="9">
+        <v>18</v>
+      </c>
+      <c r="Q494" s="9">
+        <v>0</v>
+      </c>
+      <c r="R494" s="9">
+        <v>3</v>
+      </c>
+      <c r="S494" s="9" t="s">
+        <v>1506</v>
+      </c>
+      <c r="T494" s="9" t="s">
+        <v>1507</v>
+      </c>
+      <c r="U494" s="9" t="s">
+        <v>1506</v>
+      </c>
+      <c r="V494" s="9" t="s">
+        <v>1508</v>
+      </c>
+      <c r="W494" s="9">
+        <v>2</v>
+      </c>
+      <c r="X494" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:24" s="9" customFormat="1">
+      <c r="A495" s="9">
+        <v>0</v>
+      </c>
+      <c r="B495" s="9">
+        <v>20191210</v>
+      </c>
+      <c r="C495" s="9">
+        <v>14</v>
+      </c>
+      <c r="D495" s="9">
+        <v>8</v>
+      </c>
+      <c r="E495" s="9">
+        <v>35</v>
+      </c>
+      <c r="F495" s="9">
+        <v>42</v>
+      </c>
+      <c r="G495" s="9">
+        <v>0</v>
+      </c>
+      <c r="H495" s="9">
+        <v>7</v>
+      </c>
+      <c r="I495" s="9">
+        <v>0</v>
+      </c>
+      <c r="J495" s="9">
+        <v>0</v>
+      </c>
+      <c r="K495" s="9">
+        <v>0</v>
+      </c>
+      <c r="L495" s="9">
+        <v>14</v>
+      </c>
+      <c r="M495" s="9">
+        <v>0</v>
+      </c>
+      <c r="N495" s="9">
+        <v>2</v>
+      </c>
+      <c r="O495" s="9">
+        <v>2</v>
+      </c>
+      <c r="P495" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q495" s="9">
+        <v>0</v>
+      </c>
+      <c r="R495" s="9">
+        <v>1</v>
+      </c>
+      <c r="S495" s="9" t="s">
+        <v>1509</v>
+      </c>
+      <c r="T495" s="9" t="s">
+        <v>1510</v>
+      </c>
+      <c r="U495" s="9" t="s">
+        <v>1509</v>
+      </c>
+      <c r="V495" s="9" t="s">
+        <v>1511</v>
+      </c>
+      <c r="W495" s="9">
+        <v>6</v>
+      </c>
+      <c r="X495" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:24" s="9" customFormat="1">
+      <c r="A496" s="9">
+        <v>0</v>
+      </c>
+      <c r="B496" s="9">
+        <v>20191211</v>
+      </c>
+      <c r="C496" s="9">
+        <v>11</v>
+      </c>
+      <c r="D496" s="9">
+        <v>5</v>
+      </c>
+      <c r="E496" s="9">
+        <v>26</v>
+      </c>
+      <c r="F496" s="9">
+        <v>35</v>
+      </c>
+      <c r="G496" s="9">
+        <v>4</v>
+      </c>
+      <c r="H496" s="9">
+        <v>9</v>
+      </c>
+      <c r="I496" s="9">
+        <v>0</v>
+      </c>
+      <c r="J496" s="9">
+        <v>1</v>
+      </c>
+      <c r="K496" s="9">
+        <v>1</v>
+      </c>
+      <c r="L496" s="9">
+        <v>14</v>
+      </c>
+      <c r="M496" s="9">
+        <v>0</v>
+      </c>
+      <c r="N496" s="9">
+        <v>4</v>
+      </c>
+      <c r="O496" s="9">
+        <v>5</v>
+      </c>
+      <c r="P496" s="9">
+        <v>19</v>
+      </c>
+      <c r="Q496" s="9">
+        <v>0</v>
+      </c>
+      <c r="R496" s="9">
+        <v>1</v>
+      </c>
+      <c r="S496" s="9" t="s">
+        <v>1512</v>
+      </c>
+      <c r="T496" s="9" t="s">
+        <v>1351</v>
+      </c>
+      <c r="U496" s="9" t="s">
+        <v>1351</v>
+      </c>
+      <c r="V496" s="9" t="s">
+        <v>1513</v>
+      </c>
+      <c r="W496" s="9">
+        <v>2</v>
+      </c>
+      <c r="X496" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:24" s="9" customFormat="1">
+      <c r="A497" s="9">
+        <v>0</v>
+      </c>
+      <c r="B497" s="9">
+        <v>20191212</v>
+      </c>
+      <c r="C497" s="9">
+        <v>9</v>
+      </c>
+      <c r="D497" s="9">
+        <v>6</v>
+      </c>
+      <c r="E497" s="9">
+        <v>27</v>
+      </c>
+      <c r="F497" s="9">
+        <v>33</v>
+      </c>
+      <c r="G497" s="9">
+        <v>1</v>
+      </c>
+      <c r="H497" s="9">
+        <v>6</v>
+      </c>
+      <c r="I497" s="9">
+        <v>0</v>
+      </c>
+      <c r="J497" s="9">
+        <v>3</v>
+      </c>
+      <c r="K497" s="9">
+        <v>2</v>
+      </c>
+      <c r="L497" s="9">
+        <v>11</v>
+      </c>
+      <c r="M497" s="9">
+        <v>0</v>
+      </c>
+      <c r="N497" s="9">
+        <v>3</v>
+      </c>
+      <c r="O497" s="9">
+        <v>6</v>
+      </c>
+      <c r="P497" s="9">
+        <v>21</v>
+      </c>
+      <c r="Q497" s="9">
+        <v>2</v>
+      </c>
+      <c r="R497" s="9">
+        <v>0</v>
+      </c>
+      <c r="S497" s="9" t="s">
+        <v>1514</v>
+      </c>
+      <c r="T497" s="9" t="s">
+        <v>1515</v>
+      </c>
+      <c r="U497" s="9" t="s">
+        <v>1515</v>
+      </c>
+      <c r="V497" s="9" t="s">
+        <v>1516</v>
+      </c>
+      <c r="W497" s="9">
+        <v>2</v>
+      </c>
+      <c r="X497" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:24" s="9" customFormat="1">
+      <c r="A498" s="9">
+        <v>0</v>
+      </c>
+      <c r="B498" s="9">
+        <v>20191213</v>
+      </c>
+      <c r="C498" s="9">
+        <v>7</v>
+      </c>
+      <c r="D498" s="9">
+        <v>4</v>
+      </c>
+      <c r="E498" s="9">
+        <v>34</v>
+      </c>
+      <c r="F498" s="9">
+        <v>39</v>
+      </c>
+      <c r="G498" s="9">
+        <v>1</v>
+      </c>
+      <c r="H498" s="9">
+        <v>5</v>
+      </c>
+      <c r="I498" s="9">
+        <v>0</v>
+      </c>
+      <c r="J498" s="9">
+        <v>0</v>
+      </c>
+      <c r="K498" s="9">
+        <v>0</v>
+      </c>
+      <c r="L498" s="9">
+        <v>9</v>
+      </c>
+      <c r="M498" s="9">
+        <v>0</v>
+      </c>
+      <c r="N498" s="9">
+        <v>1</v>
+      </c>
+      <c r="O498" s="9">
+        <v>2</v>
+      </c>
+      <c r="P498" s="9">
+        <v>19</v>
+      </c>
+      <c r="Q498" s="9">
+        <v>0</v>
+      </c>
+      <c r="R498" s="9">
+        <v>3</v>
+      </c>
+      <c r="S498" s="9" t="s">
+        <v>1517</v>
+      </c>
+      <c r="T498" s="9" t="s">
+        <v>1518</v>
+      </c>
+      <c r="U498" s="9" t="s">
+        <v>1518</v>
+      </c>
+      <c r="V498" s="9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="W498" s="9">
+        <v>5</v>
+      </c>
+      <c r="X498" s="9">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/static/xls/latest.xlsx
+++ b/src/main/resources/static/xls/latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="1558">
   <si>
     <t>date</t>
   </si>
@@ -4575,6 +4575,120 @@
   </si>
   <si>
     <t>2-田中精机-300461.SZ-实体-浙江-12.0</t>
+  </si>
+  <si>
+    <t>9-南宁百货-600712.SH-实体-广西-23.0</t>
+  </si>
+  <si>
+    <t>2-中信建投-601066.SH-实体-北京-13.0</t>
+  </si>
+  <si>
+    <t>1-长信科技-300088.SZ-实体-安徽-6.0</t>
+  </si>
+  <si>
+    <t>2-绿庭投资-600695.SH-实体-上海-14.0</t>
+  </si>
+  <si>
+    <t>4-东睦股份-600114.SH-实体-浙江-7.0</t>
+  </si>
+  <si>
+    <t>3-南京证券-601990.SH-实体-江苏-25.0</t>
+  </si>
+  <si>
+    <t>1-漫步者-002351.SZ-实体-深圳-5.0</t>
+  </si>
+  <si>
+    <t>5-东睦股份-600114.SH-实体-浙江-12.0</t>
+  </si>
+  <si>
+    <t>4-南京证券-601990.SH-实体-江苏-30.0</t>
+  </si>
+  <si>
+    <t>1-浙商证券-601878.SH-实体-浙江-12.0</t>
+  </si>
+  <si>
+    <t>5-星期六-002291.SZ-实体-广东-40.0</t>
+  </si>
+  <si>
+    <t>5-绿庭投资-600695.SH-实体-上海-20.0</t>
+  </si>
+  <si>
+    <t>2-共达电声-002655.SZ-实体-山东-13.0</t>
+  </si>
+  <si>
+    <t>6-星期六-002291.SZ-实体-广东-45.0</t>
+  </si>
+  <si>
+    <t>1-全志科技-300458.SZ-实体-广东-10.0</t>
+  </si>
+  <si>
+    <t>3-万讯自控-300112.SZ-实体-深圳-21.0</t>
+  </si>
+  <si>
+    <t>4-万讯自控-300112.SZ-实体-深圳-21.0</t>
+  </si>
+  <si>
+    <t>1-拓维信息-002261.SZ-实体-湖南-9.0</t>
+  </si>
+  <si>
+    <t>3-宁波富邦-600768.SH-实体-浙江-27.0</t>
+  </si>
+  <si>
+    <t>3-威唐工业-300707.SZ-实体-江苏-19.0</t>
+  </si>
+  <si>
+    <t>2-拓维信息-002261.SZ-实体-湖南-17.0</t>
+  </si>
+  <si>
+    <t>2-凌云股份-600480.SH-实体-河北-15.0</t>
+  </si>
+  <si>
+    <t>4-威唐工业-300707.SZ-非实体-江苏-19.0</t>
+  </si>
+  <si>
+    <t>2-当升科技-300073.SZ-实体-北京-12.0</t>
+  </si>
+  <si>
+    <t>1-中环股份-002129.SZ-实体-天津-9.0</t>
+  </si>
+  <si>
+    <t>3-贵人鸟-603555.SH-实体-福建-34.0</t>
+  </si>
+  <si>
+    <t>5-威唐工业-300707.SZ-实体-江苏-27.0</t>
+  </si>
+  <si>
+    <t>3-南大光电-300346.SZ-实体-江苏-12.0</t>
+  </si>
+  <si>
+    <t>6-威唐工业-300707.SZ-实体-江苏-30.0</t>
+  </si>
+  <si>
+    <t>1-拓维信息-002261.SZ-实体-湖南-10.0</t>
+  </si>
+  <si>
+    <t>4-容大感光-300576.SZ-实体-深圳-33.0</t>
+  </si>
+  <si>
+    <t>6-欣龙控股-000955.SZ-实体-海南-5.0</t>
+  </si>
+  <si>
+    <t>1-中信证券-600030.SH-实体-深圳-10.0</t>
+  </si>
+  <si>
+    <t>3-天创时尚-603608.SH-实体-广东-21.0</t>
+  </si>
+  <si>
+    <t>智慧松德&amp;300173.SZ&amp;0.0***</t>
+  </si>
+  <si>
+    <t>7-欣龙控股-000955.SZ-实体-海南-15.0</t>
+  </si>
+  <si>
+    <t>2-国投资本-600061.SH-实体-上海-16.0</t>
+  </si>
+  <si>
+    <t>2-四川金顶-600678.SH-实体-四川-18.0</t>
   </si>
 </sst>
 </file>
@@ -5570,11 +5684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X498"/>
+  <dimension ref="A1:X510"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A489" sqref="A489:XFD498"/>
+      <pane ySplit="1" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A497" sqref="A497:XFD510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -42373,6 +42487,894 @@
         <v>5</v>
       </c>
       <c r="X498" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:24" s="9" customFormat="1">
+      <c r="A499" s="9">
+        <v>0</v>
+      </c>
+      <c r="B499" s="9">
+        <v>20191216</v>
+      </c>
+      <c r="C499" s="9">
+        <v>12</v>
+      </c>
+      <c r="D499" s="9">
+        <v>10</v>
+      </c>
+      <c r="E499" s="9">
+        <v>56</v>
+      </c>
+      <c r="F499" s="9">
+        <v>62</v>
+      </c>
+      <c r="G499" s="9">
+        <v>1</v>
+      </c>
+      <c r="H499" s="9">
+        <v>6</v>
+      </c>
+      <c r="I499" s="9">
+        <v>0</v>
+      </c>
+      <c r="J499" s="9">
+        <v>0</v>
+      </c>
+      <c r="K499" s="9">
+        <v>0</v>
+      </c>
+      <c r="L499" s="9">
+        <v>7</v>
+      </c>
+      <c r="M499" s="9">
+        <v>0</v>
+      </c>
+      <c r="N499" s="9">
+        <v>0</v>
+      </c>
+      <c r="O499" s="9">
+        <v>0</v>
+      </c>
+      <c r="P499" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q499" s="9">
+        <v>0</v>
+      </c>
+      <c r="R499" s="9">
+        <v>0</v>
+      </c>
+      <c r="S499" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="T499" s="9" t="s">
+        <v>1521</v>
+      </c>
+      <c r="U499" s="9" t="s">
+        <v>1522</v>
+      </c>
+      <c r="V499" s="9" t="s">
+        <v>1523</v>
+      </c>
+      <c r="W499" s="9">
+        <v>8</v>
+      </c>
+      <c r="X499" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:24" s="9" customFormat="1">
+      <c r="A500" s="9">
+        <v>0</v>
+      </c>
+      <c r="B500" s="9">
+        <v>20191217</v>
+      </c>
+      <c r="C500" s="9">
+        <v>19</v>
+      </c>
+      <c r="D500" s="9">
+        <v>15</v>
+      </c>
+      <c r="E500" s="9">
+        <v>46</v>
+      </c>
+      <c r="F500" s="9">
+        <v>52</v>
+      </c>
+      <c r="G500" s="9">
+        <v>2</v>
+      </c>
+      <c r="H500" s="9">
+        <v>6</v>
+      </c>
+      <c r="I500" s="9">
+        <v>0</v>
+      </c>
+      <c r="J500" s="9">
+        <v>0</v>
+      </c>
+      <c r="K500" s="9">
+        <v>1</v>
+      </c>
+      <c r="L500" s="9">
+        <v>12</v>
+      </c>
+      <c r="M500" s="9">
+        <v>0</v>
+      </c>
+      <c r="N500" s="9">
+        <v>0</v>
+      </c>
+      <c r="O500" s="9">
+        <v>0</v>
+      </c>
+      <c r="P500" s="9">
+        <v>30</v>
+      </c>
+      <c r="Q500" s="9">
+        <v>0</v>
+      </c>
+      <c r="R500" s="9">
+        <v>1</v>
+      </c>
+      <c r="S500" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="T500" s="9" t="s">
+        <v>1525</v>
+      </c>
+      <c r="U500" s="9" t="s">
+        <v>1526</v>
+      </c>
+      <c r="V500" s="9" t="s">
+        <v>1525</v>
+      </c>
+      <c r="W500" s="9">
+        <v>8</v>
+      </c>
+      <c r="X500" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:24" s="9" customFormat="1">
+      <c r="A501" s="9">
+        <v>0</v>
+      </c>
+      <c r="B501" s="9">
+        <v>20191218</v>
+      </c>
+      <c r="C501" s="9">
+        <v>17</v>
+      </c>
+      <c r="D501" s="9">
+        <v>12</v>
+      </c>
+      <c r="E501" s="9">
+        <v>47</v>
+      </c>
+      <c r="F501" s="9">
+        <v>54</v>
+      </c>
+      <c r="G501" s="9">
+        <v>2</v>
+      </c>
+      <c r="H501" s="9">
+        <v>7</v>
+      </c>
+      <c r="I501" s="9">
+        <v>0</v>
+      </c>
+      <c r="J501" s="9">
+        <v>0</v>
+      </c>
+      <c r="K501" s="9">
+        <v>1</v>
+      </c>
+      <c r="L501" s="9">
+        <v>19</v>
+      </c>
+      <c r="M501" s="9">
+        <v>0</v>
+      </c>
+      <c r="N501" s="9">
+        <v>0</v>
+      </c>
+      <c r="O501" s="9">
+        <v>0</v>
+      </c>
+      <c r="P501" s="9">
+        <v>22</v>
+      </c>
+      <c r="Q501" s="9">
+        <v>0</v>
+      </c>
+      <c r="R501" s="9">
+        <v>0</v>
+      </c>
+      <c r="S501" s="9" t="s">
+        <v>1527</v>
+      </c>
+      <c r="T501" s="9" t="s">
+        <v>1528</v>
+      </c>
+      <c r="U501" s="9" t="s">
+        <v>1529</v>
+      </c>
+      <c r="V501" s="9" t="s">
+        <v>1528</v>
+      </c>
+      <c r="W501" s="9">
+        <v>8</v>
+      </c>
+      <c r="X501" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:24" s="9" customFormat="1">
+      <c r="A502" s="9">
+        <v>0</v>
+      </c>
+      <c r="B502" s="9">
+        <v>20191219</v>
+      </c>
+      <c r="C502" s="9">
+        <v>15</v>
+      </c>
+      <c r="D502" s="9">
+        <v>10</v>
+      </c>
+      <c r="E502" s="9">
+        <v>47</v>
+      </c>
+      <c r="F502" s="9">
+        <v>54</v>
+      </c>
+      <c r="G502" s="9">
+        <v>0</v>
+      </c>
+      <c r="H502" s="9">
+        <v>7</v>
+      </c>
+      <c r="I502" s="9">
+        <v>0</v>
+      </c>
+      <c r="J502" s="9">
+        <v>1</v>
+      </c>
+      <c r="K502" s="9">
+        <v>0</v>
+      </c>
+      <c r="L502" s="9">
+        <v>17</v>
+      </c>
+      <c r="M502" s="9">
+        <v>0</v>
+      </c>
+      <c r="N502" s="9">
+        <v>1</v>
+      </c>
+      <c r="O502" s="9">
+        <v>5</v>
+      </c>
+      <c r="P502" s="9">
+        <v>21</v>
+      </c>
+      <c r="Q502" s="9">
+        <v>0</v>
+      </c>
+      <c r="R502" s="9">
+        <v>1</v>
+      </c>
+      <c r="S502" s="9" t="s">
+        <v>1530</v>
+      </c>
+      <c r="T502" s="9" t="s">
+        <v>1531</v>
+      </c>
+      <c r="U502" s="9" t="s">
+        <v>1532</v>
+      </c>
+      <c r="V502" s="9" t="s">
+        <v>1531</v>
+      </c>
+      <c r="W502" s="9">
+        <v>4</v>
+      </c>
+      <c r="X502" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:24" s="9" customFormat="1">
+      <c r="A503" s="9">
+        <v>0</v>
+      </c>
+      <c r="B503" s="9">
+        <v>20191220</v>
+      </c>
+      <c r="C503" s="9">
+        <v>15</v>
+      </c>
+      <c r="D503" s="9">
+        <v>10</v>
+      </c>
+      <c r="E503" s="9">
+        <v>38</v>
+      </c>
+      <c r="F503" s="9">
+        <v>47</v>
+      </c>
+      <c r="G503" s="9">
+        <v>1</v>
+      </c>
+      <c r="H503" s="9">
+        <v>9</v>
+      </c>
+      <c r="I503" s="9">
+        <v>0</v>
+      </c>
+      <c r="J503" s="9">
+        <v>0</v>
+      </c>
+      <c r="K503" s="9">
+        <v>0</v>
+      </c>
+      <c r="L503" s="9">
+        <v>15</v>
+      </c>
+      <c r="M503" s="9">
+        <v>0</v>
+      </c>
+      <c r="N503" s="9">
+        <v>0</v>
+      </c>
+      <c r="O503" s="9">
+        <v>2</v>
+      </c>
+      <c r="P503" s="9">
+        <v>19</v>
+      </c>
+      <c r="Q503" s="9">
+        <v>0</v>
+      </c>
+      <c r="R503" s="9">
+        <v>1</v>
+      </c>
+      <c r="S503" s="9" t="s">
+        <v>1533</v>
+      </c>
+      <c r="T503" s="9" t="s">
+        <v>1534</v>
+      </c>
+      <c r="U503" s="9" t="s">
+        <v>1534</v>
+      </c>
+      <c r="V503" s="9" t="s">
+        <v>1535</v>
+      </c>
+      <c r="W503" s="9">
+        <v>2</v>
+      </c>
+      <c r="X503" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:24" s="9" customFormat="1">
+      <c r="A504" s="9">
+        <v>0</v>
+      </c>
+      <c r="B504" s="9">
+        <v>20191223</v>
+      </c>
+      <c r="C504" s="9">
+        <v>8</v>
+      </c>
+      <c r="D504" s="9">
+        <v>5</v>
+      </c>
+      <c r="E504" s="9">
+        <v>17</v>
+      </c>
+      <c r="F504" s="9">
+        <v>25</v>
+      </c>
+      <c r="G504" s="9">
+        <v>1</v>
+      </c>
+      <c r="H504" s="9">
+        <v>8</v>
+      </c>
+      <c r="I504" s="9">
+        <v>0</v>
+      </c>
+      <c r="J504" s="9">
+        <v>5</v>
+      </c>
+      <c r="K504" s="9">
+        <v>3</v>
+      </c>
+      <c r="L504" s="9">
+        <v>15</v>
+      </c>
+      <c r="M504" s="9">
+        <v>0</v>
+      </c>
+      <c r="N504" s="9">
+        <v>6</v>
+      </c>
+      <c r="O504" s="9">
+        <v>31</v>
+      </c>
+      <c r="P504" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q504" s="9">
+        <v>0</v>
+      </c>
+      <c r="R504" s="9">
+        <v>3</v>
+      </c>
+      <c r="S504" s="9" t="s">
+        <v>1536</v>
+      </c>
+      <c r="T504" s="9" t="s">
+        <v>1537</v>
+      </c>
+      <c r="U504" s="9">
+        <v>0</v>
+      </c>
+      <c r="V504" s="9" t="s">
+        <v>1538</v>
+      </c>
+      <c r="W504" s="9">
+        <v>3</v>
+      </c>
+      <c r="X504" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:24" s="9" customFormat="1">
+      <c r="A505" s="9">
+        <v>0</v>
+      </c>
+      <c r="B505" s="9">
+        <v>20191224</v>
+      </c>
+      <c r="C505" s="9">
+        <v>9</v>
+      </c>
+      <c r="D505" s="9">
+        <v>5</v>
+      </c>
+      <c r="E505" s="9">
+        <v>46</v>
+      </c>
+      <c r="F505" s="9">
+        <v>53</v>
+      </c>
+      <c r="G505" s="9">
+        <v>2</v>
+      </c>
+      <c r="H505" s="9">
+        <v>7</v>
+      </c>
+      <c r="I505" s="9">
+        <v>0</v>
+      </c>
+      <c r="J505" s="9">
+        <v>1</v>
+      </c>
+      <c r="K505" s="9">
+        <v>1</v>
+      </c>
+      <c r="L505" s="9">
+        <v>8</v>
+      </c>
+      <c r="M505" s="9">
+        <v>0</v>
+      </c>
+      <c r="N505" s="9">
+        <v>2</v>
+      </c>
+      <c r="O505" s="9">
+        <v>4</v>
+      </c>
+      <c r="P505" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q505" s="9">
+        <v>0</v>
+      </c>
+      <c r="R505" s="9">
+        <v>1</v>
+      </c>
+      <c r="S505" s="9" t="s">
+        <v>1539</v>
+      </c>
+      <c r="T505" s="9" t="s">
+        <v>1540</v>
+      </c>
+      <c r="U505" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="V505" s="9" t="s">
+        <v>1541</v>
+      </c>
+      <c r="W505" s="9">
+        <v>5</v>
+      </c>
+      <c r="X505" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:24" s="9" customFormat="1">
+      <c r="A506" s="9">
+        <v>0</v>
+      </c>
+      <c r="B506" s="9">
+        <v>20191225</v>
+      </c>
+      <c r="C506" s="9">
+        <v>11</v>
+      </c>
+      <c r="D506" s="9">
+        <v>8</v>
+      </c>
+      <c r="E506" s="9">
+        <v>38</v>
+      </c>
+      <c r="F506" s="9">
+        <v>44</v>
+      </c>
+      <c r="G506" s="9">
+        <v>3</v>
+      </c>
+      <c r="H506" s="9">
+        <v>6</v>
+      </c>
+      <c r="I506" s="9">
+        <v>0</v>
+      </c>
+      <c r="J506" s="9">
+        <v>0</v>
+      </c>
+      <c r="K506" s="9">
+        <v>1</v>
+      </c>
+      <c r="L506" s="9">
+        <v>9</v>
+      </c>
+      <c r="M506" s="9">
+        <v>0</v>
+      </c>
+      <c r="N506" s="9">
+        <v>0</v>
+      </c>
+      <c r="O506" s="9">
+        <v>0</v>
+      </c>
+      <c r="P506" s="9">
+        <v>25</v>
+      </c>
+      <c r="Q506" s="9">
+        <v>0</v>
+      </c>
+      <c r="R506" s="9">
+        <v>0</v>
+      </c>
+      <c r="S506" s="9" t="s">
+        <v>1542</v>
+      </c>
+      <c r="T506" s="9" t="s">
+        <v>1543</v>
+      </c>
+      <c r="U506" s="9" t="s">
+        <v>1544</v>
+      </c>
+      <c r="V506" s="9" t="s">
+        <v>1545</v>
+      </c>
+      <c r="W506" s="9">
+        <v>5</v>
+      </c>
+      <c r="X506" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:24" s="9" customFormat="1">
+      <c r="A507" s="9">
+        <v>0</v>
+      </c>
+      <c r="B507" s="9">
+        <v>20191226</v>
+      </c>
+      <c r="C507" s="9">
+        <v>14</v>
+      </c>
+      <c r="D507" s="9">
+        <v>10</v>
+      </c>
+      <c r="E507" s="9">
+        <v>45</v>
+      </c>
+      <c r="F507" s="9">
+        <v>52</v>
+      </c>
+      <c r="G507" s="9">
+        <v>1</v>
+      </c>
+      <c r="H507" s="9">
+        <v>7</v>
+      </c>
+      <c r="I507" s="9">
+        <v>0</v>
+      </c>
+      <c r="J507" s="9">
+        <v>0</v>
+      </c>
+      <c r="K507" s="9">
+        <v>0</v>
+      </c>
+      <c r="L507" s="9">
+        <v>11</v>
+      </c>
+      <c r="M507" s="9">
+        <v>0</v>
+      </c>
+      <c r="N507" s="9">
+        <v>0</v>
+      </c>
+      <c r="O507" s="9">
+        <v>0</v>
+      </c>
+      <c r="P507" s="9">
+        <v>21</v>
+      </c>
+      <c r="Q507" s="9">
+        <v>0</v>
+      </c>
+      <c r="R507" s="9">
+        <v>1</v>
+      </c>
+      <c r="S507" s="9" t="s">
+        <v>1546</v>
+      </c>
+      <c r="T507" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="U507" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="V507" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="W507" s="9">
+        <v>2</v>
+      </c>
+      <c r="X507" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:24" s="9" customFormat="1">
+      <c r="A508" s="9">
+        <v>0</v>
+      </c>
+      <c r="B508" s="9">
+        <v>20191227</v>
+      </c>
+      <c r="C508" s="9">
+        <v>18</v>
+      </c>
+      <c r="D508" s="9">
+        <v>13</v>
+      </c>
+      <c r="E508" s="9">
+        <v>36</v>
+      </c>
+      <c r="F508" s="9">
+        <v>43</v>
+      </c>
+      <c r="G508" s="9">
+        <v>3</v>
+      </c>
+      <c r="H508" s="9">
+        <v>7</v>
+      </c>
+      <c r="I508" s="9">
+        <v>0</v>
+      </c>
+      <c r="J508" s="9">
+        <v>1</v>
+      </c>
+      <c r="K508" s="9">
+        <v>1</v>
+      </c>
+      <c r="L508" s="9">
+        <v>14</v>
+      </c>
+      <c r="M508" s="9">
+        <v>0</v>
+      </c>
+      <c r="N508" s="9">
+        <v>0</v>
+      </c>
+      <c r="O508" s="9">
+        <v>2</v>
+      </c>
+      <c r="P508" s="9">
+        <v>30</v>
+      </c>
+      <c r="Q508" s="9">
+        <v>0</v>
+      </c>
+      <c r="R508" s="9">
+        <v>1</v>
+      </c>
+      <c r="S508" s="9" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T508" s="9" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U508" s="9">
+        <v>0</v>
+      </c>
+      <c r="V508" s="9" t="s">
+        <v>1550</v>
+      </c>
+      <c r="W508" s="9">
+        <v>2</v>
+      </c>
+      <c r="X508" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:24" s="9" customFormat="1">
+      <c r="A509" s="9">
+        <v>0</v>
+      </c>
+      <c r="B509" s="9">
+        <v>20191230</v>
+      </c>
+      <c r="C509" s="9">
+        <v>12</v>
+      </c>
+      <c r="D509" s="9">
+        <v>11</v>
+      </c>
+      <c r="E509" s="9">
+        <v>41</v>
+      </c>
+      <c r="F509" s="9">
+        <v>46</v>
+      </c>
+      <c r="G509" s="9">
+        <v>5</v>
+      </c>
+      <c r="H509" s="9">
+        <v>5</v>
+      </c>
+      <c r="I509" s="9">
+        <v>0</v>
+      </c>
+      <c r="J509" s="9">
+        <v>2</v>
+      </c>
+      <c r="K509" s="9">
+        <v>2</v>
+      </c>
+      <c r="L509" s="9">
+        <v>18</v>
+      </c>
+      <c r="M509" s="9">
+        <v>0</v>
+      </c>
+      <c r="N509" s="9">
+        <v>1</v>
+      </c>
+      <c r="O509" s="9">
+        <v>13</v>
+      </c>
+      <c r="P509" s="9">
+        <v>19</v>
+      </c>
+      <c r="Q509" s="9">
+        <v>0</v>
+      </c>
+      <c r="R509" s="9">
+        <v>1</v>
+      </c>
+      <c r="S509" s="9" t="s">
+        <v>1551</v>
+      </c>
+      <c r="T509" s="9" t="s">
+        <v>1552</v>
+      </c>
+      <c r="U509" s="9" t="s">
+        <v>1551</v>
+      </c>
+      <c r="V509" s="9" t="s">
+        <v>1553</v>
+      </c>
+      <c r="W509" s="9">
+        <v>3</v>
+      </c>
+      <c r="X509" s="9" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="510" spans="1:24" s="9" customFormat="1">
+      <c r="A510" s="9">
+        <v>0</v>
+      </c>
+      <c r="B510" s="9">
+        <v>20191231</v>
+      </c>
+      <c r="C510" s="9">
+        <v>17</v>
+      </c>
+      <c r="D510" s="9">
+        <v>14</v>
+      </c>
+      <c r="E510" s="9">
+        <v>42</v>
+      </c>
+      <c r="F510" s="9">
+        <v>49</v>
+      </c>
+      <c r="G510" s="9">
+        <v>1</v>
+      </c>
+      <c r="H510" s="9">
+        <v>7</v>
+      </c>
+      <c r="I510" s="9">
+        <v>0</v>
+      </c>
+      <c r="J510" s="9">
+        <v>0</v>
+      </c>
+      <c r="K510" s="9">
+        <v>1</v>
+      </c>
+      <c r="L510" s="9">
+        <v>12</v>
+      </c>
+      <c r="M510" s="9">
+        <v>0</v>
+      </c>
+      <c r="N510" s="9">
+        <v>1</v>
+      </c>
+      <c r="O510" s="9">
+        <v>3</v>
+      </c>
+      <c r="P510" s="9">
+        <v>19</v>
+      </c>
+      <c r="Q510" s="9">
+        <v>0</v>
+      </c>
+      <c r="R510" s="9">
+        <v>0</v>
+      </c>
+      <c r="S510" s="9" t="s">
+        <v>1555</v>
+      </c>
+      <c r="T510" s="9" t="s">
+        <v>1556</v>
+      </c>
+      <c r="U510" s="9" t="s">
+        <v>1556</v>
+      </c>
+      <c r="V510" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="W510" s="9">
+        <v>4</v>
+      </c>
+      <c r="X510" s="9">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/static/xls/latest.xlsx
+++ b/src/main/resources/static/xls/latest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="60" windowWidth="16248" windowHeight="5760"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="16245" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="20190422-20171101" sheetId="1" r:id="rId1"/>
@@ -4634,61 +4634,62 @@
     <t>3-宁波富邦-600768.SH-实体-浙江-27.0</t>
   </si>
   <si>
+    <t>2-拓维信息-002261.SZ-实体-湖南-17.0</t>
+  </si>
+  <si>
+    <t>2-凌云股份-600480.SH-实体-河北-15.0</t>
+  </si>
+  <si>
+    <t>4-威唐工业-300707.SZ-非实体-江苏-19.0</t>
+  </si>
+  <si>
+    <t>2-当升科技-300073.SZ-实体-北京-12.0</t>
+  </si>
+  <si>
+    <t>1-中环股份-002129.SZ-实体-天津-9.0</t>
+  </si>
+  <si>
+    <t>3-贵人鸟-603555.SH-实体-福建-34.0</t>
+  </si>
+  <si>
+    <t>5-威唐工业-300707.SZ-实体-江苏-27.0</t>
+  </si>
+  <si>
+    <t>3-南大光电-300346.SZ-实体-江苏-12.0</t>
+  </si>
+  <si>
+    <t>6-威唐工业-300707.SZ-实体-江苏-30.0</t>
+  </si>
+  <si>
+    <t>1-拓维信息-002261.SZ-实体-湖南-10.0</t>
+  </si>
+  <si>
+    <t>4-容大感光-300576.SZ-实体-深圳-33.0</t>
+  </si>
+  <si>
+    <t>6-欣龙控股-000955.SZ-实体-海南-5.0</t>
+  </si>
+  <si>
+    <t>1-中信证券-600030.SH-实体-深圳-10.0</t>
+  </si>
+  <si>
+    <t>3-天创时尚-603608.SH-实体-广东-21.0</t>
+  </si>
+  <si>
+    <t>智慧松德&amp;300173.SZ&amp;0.0***</t>
+  </si>
+  <si>
+    <t>7-欣龙控股-000955.SZ-实体-海南-15.0</t>
+  </si>
+  <si>
+    <t>2-国投资本-600061.SH-实体-上海-16.0</t>
+  </si>
+  <si>
+    <t>2-四川金顶-600678.SH-实体-四川-18.0</t>
+  </si>
+  <si>
     <t>3-威唐工业-300707.SZ-实体-江苏-19.0</t>
-  </si>
-  <si>
-    <t>2-拓维信息-002261.SZ-实体-湖南-17.0</t>
-  </si>
-  <si>
-    <t>2-凌云股份-600480.SH-实体-河北-15.0</t>
-  </si>
-  <si>
-    <t>4-威唐工业-300707.SZ-非实体-江苏-19.0</t>
-  </si>
-  <si>
-    <t>2-当升科技-300073.SZ-实体-北京-12.0</t>
-  </si>
-  <si>
-    <t>1-中环股份-002129.SZ-实体-天津-9.0</t>
-  </si>
-  <si>
-    <t>3-贵人鸟-603555.SH-实体-福建-34.0</t>
-  </si>
-  <si>
-    <t>5-威唐工业-300707.SZ-实体-江苏-27.0</t>
-  </si>
-  <si>
-    <t>3-南大光电-300346.SZ-实体-江苏-12.0</t>
-  </si>
-  <si>
-    <t>6-威唐工业-300707.SZ-实体-江苏-30.0</t>
-  </si>
-  <si>
-    <t>1-拓维信息-002261.SZ-实体-湖南-10.0</t>
-  </si>
-  <si>
-    <t>4-容大感光-300576.SZ-实体-深圳-33.0</t>
-  </si>
-  <si>
-    <t>6-欣龙控股-000955.SZ-实体-海南-5.0</t>
-  </si>
-  <si>
-    <t>1-中信证券-600030.SH-实体-深圳-10.0</t>
-  </si>
-  <si>
-    <t>3-天创时尚-603608.SH-实体-广东-21.0</t>
-  </si>
-  <si>
-    <t>智慧松德&amp;300173.SZ&amp;0.0***</t>
-  </si>
-  <si>
-    <t>7-欣龙控股-000955.SZ-实体-海南-15.0</t>
-  </si>
-  <si>
-    <t>2-国投资本-600061.SH-实体-上海-16.0</t>
-  </si>
-  <si>
-    <t>2-四川金顶-600678.SH-实体-四川-18.0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5687,17 +5688,17 @@
   <dimension ref="A1:X510"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A497" sqref="A497:XFD510"/>
+      <pane ySplit="1" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S505" sqref="S505"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="37.77734375" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="37.75" customWidth="1"/>
+    <col min="20" max="20" width="11.375" customWidth="1"/>
     <col min="22" max="22" width="39" customWidth="1"/>
   </cols>
   <sheetData>
@@ -42990,16 +42991,16 @@
         <v>1</v>
       </c>
       <c r="S505" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="T505" s="9" t="s">
         <v>1539</v>
-      </c>
-      <c r="T505" s="9" t="s">
-        <v>1540</v>
       </c>
       <c r="U505" s="9" t="s">
         <v>326</v>
       </c>
       <c r="V505" s="9" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="W505" s="9">
         <v>5</v>
@@ -43064,16 +43065,16 @@
         <v>0</v>
       </c>
       <c r="S506" s="9" t="s">
+        <v>1541</v>
+      </c>
+      <c r="T506" s="9" t="s">
         <v>1542</v>
       </c>
-      <c r="T506" s="9" t="s">
+      <c r="U506" s="9" t="s">
         <v>1543</v>
       </c>
-      <c r="U506" s="9" t="s">
+      <c r="V506" s="9" t="s">
         <v>1544</v>
-      </c>
-      <c r="V506" s="9" t="s">
-        <v>1545</v>
       </c>
       <c r="W506" s="9">
         <v>5</v>
@@ -43138,16 +43139,16 @@
         <v>1</v>
       </c>
       <c r="S507" s="9" t="s">
+        <v>1545</v>
+      </c>
+      <c r="T507" s="9" t="s">
         <v>1546</v>
       </c>
-      <c r="T507" s="9" t="s">
-        <v>1547</v>
-      </c>
       <c r="U507" s="9" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="V507" s="9" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="W507" s="9">
         <v>2</v>
@@ -43212,16 +43213,16 @@
         <v>1</v>
       </c>
       <c r="S508" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="T508" s="9" t="s">
         <v>1548</v>
       </c>
-      <c r="T508" s="9" t="s">
+      <c r="U508" s="9">
+        <v>0</v>
+      </c>
+      <c r="V508" s="9" t="s">
         <v>1549</v>
-      </c>
-      <c r="U508" s="9">
-        <v>0</v>
-      </c>
-      <c r="V508" s="9" t="s">
-        <v>1550</v>
       </c>
       <c r="W508" s="9">
         <v>2</v>
@@ -43286,22 +43287,22 @@
         <v>1</v>
       </c>
       <c r="S509" s="9" t="s">
+        <v>1550</v>
+      </c>
+      <c r="T509" s="9" t="s">
         <v>1551</v>
       </c>
-      <c r="T509" s="9" t="s">
+      <c r="U509" s="9" t="s">
+        <v>1550</v>
+      </c>
+      <c r="V509" s="9" t="s">
         <v>1552</v>
-      </c>
-      <c r="U509" s="9" t="s">
-        <v>1551</v>
-      </c>
-      <c r="V509" s="9" t="s">
-        <v>1553</v>
       </c>
       <c r="W509" s="9">
         <v>3</v>
       </c>
       <c r="X509" s="9" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="510" spans="1:24" s="9" customFormat="1">
@@ -43360,16 +43361,16 @@
         <v>0</v>
       </c>
       <c r="S510" s="9" t="s">
+        <v>1554</v>
+      </c>
+      <c r="T510" s="9" t="s">
         <v>1555</v>
       </c>
-      <c r="T510" s="9" t="s">
+      <c r="U510" s="9" t="s">
+        <v>1555</v>
+      </c>
+      <c r="V510" s="9" t="s">
         <v>1556</v>
-      </c>
-      <c r="U510" s="9" t="s">
-        <v>1556</v>
-      </c>
-      <c r="V510" s="9" t="s">
-        <v>1557</v>
       </c>
       <c r="W510" s="9">
         <v>4</v>

--- a/src/main/resources/static/xls/latest.xlsx
+++ b/src/main/resources/static/xls/latest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="16245" windowHeight="5760"/>
+    <workbookView xWindow="396" yWindow="60" windowWidth="16248" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="20190422-20171101" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="1558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1587">
   <si>
     <t>date</t>
   </si>
@@ -4685,11 +4685,98 @@
     <t>2-国投资本-600061.SH-实体-上海-16.0</t>
   </si>
   <si>
-    <t>2-四川金顶-600678.SH-实体-四川-18.0</t>
-  </si>
-  <si>
     <t>3-威唐工业-300707.SZ-实体-江苏-19.0</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-日播时尚-603196.SH-实体-上海-20.0</t>
+  </si>
+  <si>
+    <t>8-欣龙控股-000955.SZ-实体-海南-20.0</t>
+  </si>
+  <si>
+    <t>2-航锦科技-000818.SZ-实体-辽宁-19.0</t>
+  </si>
+  <si>
+    <t>2-隆平高科-000998.SZ-实体-湖南-3.0</t>
+  </si>
+  <si>
+    <t>3-南卫股份-603880.SH-实体-江苏-29.0</t>
+  </si>
+  <si>
+    <t>4-大北农-002385.SZ-非实体-北京-10.0</t>
+  </si>
+  <si>
+    <t>1-深科技-000021.SZ-实体-深圳-9.0</t>
+  </si>
+  <si>
+    <t>4-日出东方-603366.SH-实体-江苏-10.0</t>
+  </si>
+  <si>
+    <t>5-大北农-002385.SZ-非实体-北京-10.0</t>
+  </si>
+  <si>
+    <t>2-丰乐种业-000713.SZ-实体-安徽-16.0</t>
+  </si>
+  <si>
+    <t>1-恒邦股份-002237.SZ-实体-山东-5.0</t>
+  </si>
+  <si>
+    <t>3-佳创视讯-300264.SZ-实体-深圳-18.0</t>
+  </si>
+  <si>
+    <t>6-大北农-002385.SZ-非实体-北京-10.0</t>
+  </si>
+  <si>
+    <t>3-登海种业-002041.SZ-实体-山东-19.0</t>
+  </si>
+  <si>
+    <t>1-益生股份-002458.SZ-实体-山东-10.0</t>
+  </si>
+  <si>
+    <t>4-佳创视讯-300264.SZ-实体-深圳-31.0</t>
+  </si>
+  <si>
+    <t>世运电路&amp;603920.SH&amp;0.02***</t>
+  </si>
+  <si>
+    <t>7-大北农-002385.SZ-非实体-北京-10.0</t>
+  </si>
+  <si>
+    <t>2-东方日升-300118.SZ-实体-浙江-3.0</t>
+  </si>
+  <si>
+    <t>3-奥特佳-002239.SZ-实体-江苏-15.0</t>
+  </si>
+  <si>
+    <t>荃银高科&amp;300087.SZ&amp;0.08***常铝股份&amp;002160.SZ&amp;0.1***</t>
+  </si>
+  <si>
+    <t>5-荃银高科-300087.SZ-实体-安徽-10.0</t>
+  </si>
+  <si>
+    <t>1-东方通-300379.SZ-实体-北京-9.0</t>
+  </si>
+  <si>
+    <t>3-博通股份-600455.SH-实体-陕西-24.0</t>
+  </si>
+  <si>
+    <t>常铝股份&amp;002160.SZ&amp;0.02***</t>
+  </si>
+  <si>
+    <t>4-康跃科技-300391.SZ-实体-山东-0.0</t>
+  </si>
+  <si>
+    <t>2-诚迈科技-300598.SZ-实体-江苏-15.0</t>
+  </si>
+  <si>
+    <t>1-汇顶科技-603160.SH-实体-深圳-10.0</t>
+  </si>
+  <si>
+    <t>2-爱迪尔-002740.SZ-实体-福建-21.0</t>
+  </si>
+  <si>
+    <t>康跃科技&amp;300391.SZ&amp;0***</t>
   </si>
 </sst>
 </file>
@@ -5685,20 +5772,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X510"/>
+  <dimension ref="A1:X517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S505" sqref="S505"/>
+      <pane ySplit="1" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A509" sqref="A509:XFD517"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="37.75" customWidth="1"/>
-    <col min="20" max="20" width="11.375" customWidth="1"/>
+    <col min="19" max="19" width="37.77734375" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
     <col min="22" max="22" width="39" customWidth="1"/>
   </cols>
   <sheetData>
@@ -42991,7 +43078,7 @@
         <v>1</v>
       </c>
       <c r="S505" s="9" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="T505" s="9" t="s">
         <v>1539</v>
@@ -43370,13 +43457,531 @@
         <v>1555</v>
       </c>
       <c r="V510" s="9" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="W510" s="9">
         <v>4</v>
       </c>
       <c r="X510" s="9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:24" s="9" customFormat="1">
+      <c r="A511" s="9">
+        <v>0</v>
+      </c>
+      <c r="B511" s="9">
+        <v>20200102</v>
+      </c>
+      <c r="C511" s="9">
+        <v>24</v>
+      </c>
+      <c r="D511" s="9">
+        <v>19</v>
+      </c>
+      <c r="E511" s="9">
+        <v>74</v>
+      </c>
+      <c r="F511" s="9">
+        <v>86</v>
+      </c>
+      <c r="G511" s="9">
+        <v>5</v>
+      </c>
+      <c r="H511" s="9">
+        <v>12</v>
+      </c>
+      <c r="I511" s="9">
+        <v>0</v>
+      </c>
+      <c r="J511" s="9">
+        <v>0</v>
+      </c>
+      <c r="K511" s="9">
+        <v>2</v>
+      </c>
+      <c r="L511" s="9">
+        <v>17</v>
+      </c>
+      <c r="M511" s="9">
+        <v>0</v>
+      </c>
+      <c r="N511" s="9">
+        <v>0</v>
+      </c>
+      <c r="O511" s="9">
+        <v>1</v>
+      </c>
+      <c r="P511" s="9">
+        <v>27</v>
+      </c>
+      <c r="Q511" s="9">
+        <v>0</v>
+      </c>
+      <c r="R511" s="9">
+        <v>1</v>
+      </c>
+      <c r="S511" s="9" t="s">
+        <v>1558</v>
+      </c>
+      <c r="T511" s="9" t="s">
+        <v>1559</v>
+      </c>
+      <c r="U511" s="9" t="s">
+        <v>1560</v>
+      </c>
+      <c r="V511" s="9" t="s">
+        <v>1561</v>
+      </c>
+      <c r="W511" s="9">
+        <v>7</v>
+      </c>
+      <c r="X511" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:24" s="9" customFormat="1">
+      <c r="A512" s="9">
+        <v>0</v>
+      </c>
+      <c r="B512" s="9">
+        <v>20200103</v>
+      </c>
+      <c r="C512" s="9">
+        <v>24</v>
+      </c>
+      <c r="D512" s="9">
+        <v>19</v>
+      </c>
+      <c r="E512" s="9">
+        <v>56</v>
+      </c>
+      <c r="F512" s="9">
+        <v>63</v>
+      </c>
+      <c r="G512" s="9">
+        <v>8</v>
+      </c>
+      <c r="H512" s="9">
+        <v>7</v>
+      </c>
+      <c r="I512" s="9">
+        <v>0</v>
+      </c>
+      <c r="J512" s="9">
+        <v>3</v>
+      </c>
+      <c r="K512" s="9">
+        <v>1</v>
+      </c>
+      <c r="L512" s="9">
+        <v>24</v>
+      </c>
+      <c r="M512" s="9">
+        <v>0</v>
+      </c>
+      <c r="N512" s="9">
+        <v>0</v>
+      </c>
+      <c r="O512" s="9">
+        <v>4</v>
+      </c>
+      <c r="P512" s="9">
+        <v>25</v>
+      </c>
+      <c r="Q512" s="9">
+        <v>0</v>
+      </c>
+      <c r="R512" s="9">
+        <v>3</v>
+      </c>
+      <c r="S512" s="9" t="s">
+        <v>1562</v>
+      </c>
+      <c r="T512" s="9" t="s">
+        <v>1563</v>
+      </c>
+      <c r="U512" s="9" t="s">
+        <v>1563</v>
+      </c>
+      <c r="V512" s="9" t="s">
+        <v>1564</v>
+      </c>
+      <c r="W512" s="9">
+        <v>1</v>
+      </c>
+      <c r="X512" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:24" s="9" customFormat="1">
+      <c r="A513" s="9">
+        <v>0</v>
+      </c>
+      <c r="B513" s="9">
+        <v>20200106</v>
+      </c>
+      <c r="C513" s="9">
+        <v>20</v>
+      </c>
+      <c r="D513" s="9">
+        <v>16</v>
+      </c>
+      <c r="E513" s="9">
+        <v>66</v>
+      </c>
+      <c r="F513" s="9">
+        <v>78</v>
+      </c>
+      <c r="G513" s="9">
+        <v>5</v>
+      </c>
+      <c r="H513" s="9">
+        <v>12</v>
+      </c>
+      <c r="I513" s="9">
+        <v>1</v>
+      </c>
+      <c r="J513" s="9">
+        <v>0</v>
+      </c>
+      <c r="K513" s="9">
+        <v>0</v>
+      </c>
+      <c r="L513" s="9">
+        <v>24</v>
+      </c>
+      <c r="M513" s="9">
+        <v>0</v>
+      </c>
+      <c r="N513" s="9">
+        <v>1</v>
+      </c>
+      <c r="O513" s="9">
+        <v>3</v>
+      </c>
+      <c r="P513" s="9">
+        <v>41</v>
+      </c>
+      <c r="Q513" s="9">
+        <v>0</v>
+      </c>
+      <c r="R513" s="9">
+        <v>3</v>
+      </c>
+      <c r="S513" s="9" t="s">
+        <v>1565</v>
+      </c>
+      <c r="T513" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="U513" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="V513" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="W513" s="9">
+        <v>5</v>
+      </c>
+      <c r="X513" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:24" s="9" customFormat="1">
+      <c r="A514" s="9">
+        <v>0</v>
+      </c>
+      <c r="B514" s="9">
+        <v>20200107</v>
+      </c>
+      <c r="C514" s="9">
+        <v>24</v>
+      </c>
+      <c r="D514" s="9">
+        <v>19</v>
+      </c>
+      <c r="E514" s="9">
+        <v>71</v>
+      </c>
+      <c r="F514" s="9">
+        <v>82</v>
+      </c>
+      <c r="G514" s="9">
+        <v>5</v>
+      </c>
+      <c r="H514" s="9">
+        <v>11</v>
+      </c>
+      <c r="I514" s="9">
+        <v>0</v>
+      </c>
+      <c r="J514" s="9">
+        <v>0</v>
+      </c>
+      <c r="K514" s="9">
+        <v>1</v>
+      </c>
+      <c r="L514" s="9">
+        <v>20</v>
+      </c>
+      <c r="M514" s="9">
+        <v>0</v>
+      </c>
+      <c r="N514" s="9">
+        <v>1</v>
+      </c>
+      <c r="O514" s="9">
+        <v>1</v>
+      </c>
+      <c r="P514" s="9">
+        <v>35</v>
+      </c>
+      <c r="Q514" s="9">
+        <v>0</v>
+      </c>
+      <c r="R514" s="9">
+        <v>1</v>
+      </c>
+      <c r="S514" s="9" t="s">
+        <v>1569</v>
+      </c>
+      <c r="T514" s="9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="U514" s="9" t="s">
+        <v>1571</v>
+      </c>
+      <c r="V514" s="9" t="s">
+        <v>1572</v>
+      </c>
+      <c r="W514" s="9">
+        <v>5</v>
+      </c>
+      <c r="X514" s="9" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="515" spans="1:24" s="9" customFormat="1">
+      <c r="A515" s="9">
+        <v>0</v>
+      </c>
+      <c r="B515" s="9">
+        <v>20200108</v>
+      </c>
+      <c r="C515" s="9">
+        <v>19</v>
+      </c>
+      <c r="D515" s="9">
+        <v>14</v>
+      </c>
+      <c r="E515" s="9">
+        <v>47</v>
+      </c>
+      <c r="F515" s="9">
+        <v>55</v>
+      </c>
+      <c r="G515" s="9">
+        <v>6</v>
+      </c>
+      <c r="H515" s="9">
+        <v>8</v>
+      </c>
+      <c r="I515" s="9">
+        <v>0</v>
+      </c>
+      <c r="J515" s="9">
+        <v>0</v>
+      </c>
+      <c r="K515" s="9">
+        <v>2</v>
+      </c>
+      <c r="L515" s="9">
+        <v>24</v>
+      </c>
+      <c r="M515" s="9">
+        <v>0</v>
+      </c>
+      <c r="N515" s="9">
+        <v>1</v>
+      </c>
+      <c r="O515" s="9">
+        <v>3</v>
+      </c>
+      <c r="P515" s="9">
+        <v>29</v>
+      </c>
+      <c r="Q515" s="9">
+        <v>0</v>
+      </c>
+      <c r="R515" s="9">
+        <v>2</v>
+      </c>
+      <c r="S515" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="T515" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="U515" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="V515" s="9" t="s">
+        <v>1576</v>
+      </c>
+      <c r="W515" s="9">
+        <v>4</v>
+      </c>
+      <c r="X515" s="9" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="516" spans="1:24" s="9" customFormat="1">
+      <c r="A516" s="9">
+        <v>0</v>
+      </c>
+      <c r="B516" s="9">
+        <v>20200109</v>
+      </c>
+      <c r="C516" s="9">
+        <v>9</v>
+      </c>
+      <c r="D516" s="9">
+        <v>6</v>
+      </c>
+      <c r="E516" s="9">
+        <v>57</v>
+      </c>
+      <c r="F516" s="9">
+        <v>64</v>
+      </c>
+      <c r="G516" s="9">
+        <v>2</v>
+      </c>
+      <c r="H516" s="9">
+        <v>7</v>
+      </c>
+      <c r="I516" s="9">
+        <v>1</v>
+      </c>
+      <c r="J516" s="9">
+        <v>0</v>
+      </c>
+      <c r="K516" s="9">
+        <v>2</v>
+      </c>
+      <c r="L516" s="9">
+        <v>19</v>
+      </c>
+      <c r="M516" s="9">
+        <v>0</v>
+      </c>
+      <c r="N516" s="9">
+        <v>0</v>
+      </c>
+      <c r="O516" s="9">
+        <v>0</v>
+      </c>
+      <c r="P516" s="9">
+        <v>29</v>
+      </c>
+      <c r="Q516" s="9">
+        <v>0</v>
+      </c>
+      <c r="R516" s="9">
+        <v>1</v>
+      </c>
+      <c r="S516" s="9" t="s">
+        <v>1578</v>
+      </c>
+      <c r="T516" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="U516" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="V516" s="9" t="s">
+        <v>1580</v>
+      </c>
+      <c r="W516" s="9">
+        <v>5</v>
+      </c>
+      <c r="X516" s="9" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="517" spans="1:24" s="9" customFormat="1">
+      <c r="A517" s="9">
+        <v>0</v>
+      </c>
+      <c r="B517" s="9">
+        <v>20200110</v>
+      </c>
+      <c r="C517" s="9">
+        <v>11</v>
+      </c>
+      <c r="D517" s="9">
+        <v>9</v>
+      </c>
+      <c r="E517" s="9">
+        <v>34</v>
+      </c>
+      <c r="F517" s="9">
+        <v>40</v>
+      </c>
+      <c r="G517" s="9">
+        <v>4</v>
+      </c>
+      <c r="H517" s="9">
+        <v>6</v>
+      </c>
+      <c r="I517" s="9">
+        <v>0</v>
+      </c>
+      <c r="J517" s="9">
+        <v>2</v>
+      </c>
+      <c r="K517" s="9">
+        <v>2</v>
+      </c>
+      <c r="L517" s="9">
+        <v>9</v>
+      </c>
+      <c r="M517" s="9">
+        <v>0</v>
+      </c>
+      <c r="N517" s="9">
+        <v>0</v>
+      </c>
+      <c r="O517" s="9">
+        <v>5</v>
+      </c>
+      <c r="P517" s="9">
+        <v>18</v>
+      </c>
+      <c r="Q517" s="9">
+        <v>0</v>
+      </c>
+      <c r="R517" s="9">
+        <v>3</v>
+      </c>
+      <c r="S517" s="9" t="s">
+        <v>1582</v>
+      </c>
+      <c r="T517" s="9" t="s">
+        <v>1583</v>
+      </c>
+      <c r="U517" s="9" t="s">
+        <v>1584</v>
+      </c>
+      <c r="V517" s="9" t="s">
+        <v>1585</v>
+      </c>
+      <c r="W517" s="9">
+        <v>4</v>
+      </c>
+      <c r="X517" s="9" t="s">
+        <v>1586</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/xls/latest.xlsx
+++ b/src/main/resources/static/xls/latest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="60" windowWidth="16248" windowHeight="5760"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="16245" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="20190422-20171101" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1603">
   <si>
     <t>date</t>
   </si>
@@ -4776,7 +4776,56 @@
     <t>2-爱迪尔-002740.SZ-实体-福建-21.0</t>
   </si>
   <si>
-    <t>康跃科技&amp;300391.SZ&amp;0***</t>
+    <t>康跃科技&amp;300391.SZ&amp;0.03***</t>
+  </si>
+  <si>
+    <t>3-友阿股份-002277.SZ-实体-湖南-15.0</t>
+  </si>
+  <si>
+    <t>2-汇顶科技-603160.SH-实体-深圳-17.0</t>
+  </si>
+  <si>
+    <t>1-闻泰科技-600745.SH-实体-湖北-10.0</t>
+  </si>
+  <si>
+    <t>2-大东方-600327.SH-实体-江苏-19.0</t>
+  </si>
+  <si>
+    <t>3-安妮股份-002235.SZ-实体-福建-18.0</t>
+  </si>
+  <si>
+    <t>2-延安必康-002411.SZ-实体-陕西-18.0</t>
+  </si>
+  <si>
+    <t>1-格林美-002340.SZ-实体-深圳-9.0</t>
+  </si>
+  <si>
+    <t>3-大东方-600327.SH-实体-江苏-20.0</t>
+  </si>
+  <si>
+    <t>3-英维克-002837.SZ-实体-深圳-14.0</t>
+  </si>
+  <si>
+    <t>1-华天科技-002185.SZ-实体-甘肃-9.0</t>
+  </si>
+  <si>
+    <t>2-中视传媒-600088.SH-实体-上海-7.0</t>
+  </si>
+  <si>
+    <t>2-星期六-002291.SZ-实体-广东-18.0</t>
+  </si>
+  <si>
+    <t>1-漫步者-002351.SZ-实体-深圳-12.0</t>
+  </si>
+  <si>
+    <t>5-英维克-002837.SZ-实体-深圳-27.0</t>
+  </si>
+  <si>
+    <t>3-模塑科技-000700.SZ-实体-江苏-25.0</t>
+  </si>
+  <si>
+    <t>4-英维克-002837.SZ-实体-深圳-21.0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5772,20 +5821,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X517"/>
+  <dimension ref="A1:X522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A509" sqref="A509:XFD517"/>
+      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S517" sqref="S517"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="37.77734375" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="37.75" customWidth="1"/>
+    <col min="20" max="20" width="11.375" customWidth="1"/>
     <col min="22" max="22" width="39" customWidth="1"/>
   </cols>
   <sheetData>
@@ -43982,6 +44031,376 @@
       </c>
       <c r="X517" s="9" t="s">
         <v>1586</v>
+      </c>
+    </row>
+    <row r="518" spans="1:24" s="9" customFormat="1">
+      <c r="A518" s="9">
+        <v>0</v>
+      </c>
+      <c r="B518" s="9">
+        <v>20200113</v>
+      </c>
+      <c r="C518" s="9">
+        <v>9</v>
+      </c>
+      <c r="D518" s="9">
+        <v>6</v>
+      </c>
+      <c r="E518" s="9">
+        <v>61</v>
+      </c>
+      <c r="F518" s="9">
+        <v>66</v>
+      </c>
+      <c r="G518" s="9">
+        <v>1</v>
+      </c>
+      <c r="H518" s="9">
+        <v>5</v>
+      </c>
+      <c r="I518" s="9">
+        <v>0</v>
+      </c>
+      <c r="J518" s="9">
+        <v>0</v>
+      </c>
+      <c r="K518" s="9">
+        <v>0</v>
+      </c>
+      <c r="L518" s="9">
+        <v>11</v>
+      </c>
+      <c r="M518" s="9">
+        <v>0</v>
+      </c>
+      <c r="N518" s="9">
+        <v>0</v>
+      </c>
+      <c r="O518" s="9">
+        <v>4</v>
+      </c>
+      <c r="P518" s="9">
+        <v>14</v>
+      </c>
+      <c r="Q518" s="9">
+        <v>0</v>
+      </c>
+      <c r="R518" s="9">
+        <v>0</v>
+      </c>
+      <c r="S518" s="9" t="s">
+        <v>1587</v>
+      </c>
+      <c r="T518" s="9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="U518" s="9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="V518" s="9" t="s">
+        <v>1590</v>
+      </c>
+      <c r="W518" s="9">
+        <v>15</v>
+      </c>
+      <c r="X518" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:24" s="9" customFormat="1">
+      <c r="A519" s="9">
+        <v>0</v>
+      </c>
+      <c r="B519" s="9">
+        <v>20200114</v>
+      </c>
+      <c r="C519" s="9">
+        <v>14</v>
+      </c>
+      <c r="D519" s="9">
+        <v>10</v>
+      </c>
+      <c r="E519" s="9">
+        <v>44</v>
+      </c>
+      <c r="F519" s="9">
+        <v>54</v>
+      </c>
+      <c r="G519" s="9">
+        <v>1</v>
+      </c>
+      <c r="H519" s="9">
+        <v>10</v>
+      </c>
+      <c r="I519" s="9">
+        <v>0</v>
+      </c>
+      <c r="J519" s="9">
+        <v>1</v>
+      </c>
+      <c r="K519" s="9">
+        <v>2</v>
+      </c>
+      <c r="L519" s="9">
+        <v>9</v>
+      </c>
+      <c r="M519" s="9">
+        <v>0</v>
+      </c>
+      <c r="N519" s="9">
+        <v>0</v>
+      </c>
+      <c r="O519" s="9">
+        <v>5</v>
+      </c>
+      <c r="P519" s="9">
+        <v>36</v>
+      </c>
+      <c r="Q519" s="9">
+        <v>0</v>
+      </c>
+      <c r="R519" s="9">
+        <v>2</v>
+      </c>
+      <c r="S519" s="9" t="s">
+        <v>1591</v>
+      </c>
+      <c r="T519" s="9" t="s">
+        <v>1592</v>
+      </c>
+      <c r="U519" s="9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="V519" s="9" t="s">
+        <v>1594</v>
+      </c>
+      <c r="W519" s="9">
+        <v>5</v>
+      </c>
+      <c r="X519" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:24" s="9" customFormat="1">
+      <c r="A520" s="9">
+        <v>0</v>
+      </c>
+      <c r="B520" s="9">
+        <v>20200115</v>
+      </c>
+      <c r="C520" s="9">
+        <v>9</v>
+      </c>
+      <c r="D520" s="9">
+        <v>5</v>
+      </c>
+      <c r="E520" s="9">
+        <v>33</v>
+      </c>
+      <c r="F520" s="9">
+        <v>40</v>
+      </c>
+      <c r="G520" s="9">
+        <v>1</v>
+      </c>
+      <c r="H520" s="9">
+        <v>7</v>
+      </c>
+      <c r="I520" s="9">
+        <v>0</v>
+      </c>
+      <c r="J520" s="9">
+        <v>1</v>
+      </c>
+      <c r="K520" s="9">
+        <v>1</v>
+      </c>
+      <c r="L520" s="9">
+        <v>14</v>
+      </c>
+      <c r="M520" s="9">
+        <v>0</v>
+      </c>
+      <c r="N520" s="9">
+        <v>1</v>
+      </c>
+      <c r="O520" s="9">
+        <v>8</v>
+      </c>
+      <c r="P520" s="9">
+        <v>13</v>
+      </c>
+      <c r="Q520" s="9">
+        <v>0</v>
+      </c>
+      <c r="R520" s="9">
+        <v>0</v>
+      </c>
+      <c r="S520" s="9" t="s">
+        <v>1595</v>
+      </c>
+      <c r="T520" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="U520" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="V520" s="9" t="s">
+        <v>1597</v>
+      </c>
+      <c r="W520" s="9">
+        <v>7</v>
+      </c>
+      <c r="X520" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:24" s="9" customFormat="1">
+      <c r="A521" s="9">
+        <v>0</v>
+      </c>
+      <c r="B521" s="9">
+        <v>20200116</v>
+      </c>
+      <c r="C521" s="9">
+        <v>10</v>
+      </c>
+      <c r="D521" s="9">
+        <v>5</v>
+      </c>
+      <c r="E521" s="9">
+        <v>31</v>
+      </c>
+      <c r="F521" s="9">
+        <v>39</v>
+      </c>
+      <c r="G521" s="9">
+        <v>0</v>
+      </c>
+      <c r="H521" s="9">
+        <v>8</v>
+      </c>
+      <c r="I521" s="9">
+        <v>0</v>
+      </c>
+      <c r="J521" s="9">
+        <v>0</v>
+      </c>
+      <c r="K521" s="9">
+        <v>0</v>
+      </c>
+      <c r="L521" s="9">
+        <v>9</v>
+      </c>
+      <c r="M521" s="9">
+        <v>0</v>
+      </c>
+      <c r="N521" s="9">
+        <v>0</v>
+      </c>
+      <c r="O521" s="9">
+        <v>2</v>
+      </c>
+      <c r="P521" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q521" s="9">
+        <v>0</v>
+      </c>
+      <c r="R521" s="9">
+        <v>0</v>
+      </c>
+      <c r="S521" s="9" t="s">
+        <v>1602</v>
+      </c>
+      <c r="T521" s="9" t="s">
+        <v>1598</v>
+      </c>
+      <c r="U521" s="9" t="s">
+        <v>1599</v>
+      </c>
+      <c r="V521" s="9" t="s">
+        <v>1598</v>
+      </c>
+      <c r="W521" s="9">
+        <v>3</v>
+      </c>
+      <c r="X521" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:24" s="9" customFormat="1">
+      <c r="A522" s="9">
+        <v>0</v>
+      </c>
+      <c r="B522" s="9">
+        <v>20200117</v>
+      </c>
+      <c r="C522" s="9">
+        <v>13</v>
+      </c>
+      <c r="D522" s="9">
+        <v>7</v>
+      </c>
+      <c r="E522" s="9">
+        <v>29</v>
+      </c>
+      <c r="F522" s="9">
+        <v>37</v>
+      </c>
+      <c r="G522" s="9">
+        <v>1</v>
+      </c>
+      <c r="H522" s="9">
+        <v>8</v>
+      </c>
+      <c r="I522" s="9">
+        <v>0</v>
+      </c>
+      <c r="J522" s="9">
+        <v>1</v>
+      </c>
+      <c r="K522" s="9">
+        <v>2</v>
+      </c>
+      <c r="L522" s="9">
+        <v>10</v>
+      </c>
+      <c r="M522" s="9">
+        <v>0</v>
+      </c>
+      <c r="N522" s="9">
+        <v>1</v>
+      </c>
+      <c r="O522" s="9">
+        <v>11</v>
+      </c>
+      <c r="P522" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q522" s="9">
+        <v>0</v>
+      </c>
+      <c r="R522" s="9">
+        <v>3</v>
+      </c>
+      <c r="S522" s="9" t="s">
+        <v>1600</v>
+      </c>
+      <c r="T522" s="9" t="s">
+        <v>1601</v>
+      </c>
+      <c r="U522" s="9" t="s">
+        <v>1601</v>
+      </c>
+      <c r="V522" s="9" t="s">
+        <v>1601</v>
+      </c>
+      <c r="W522" s="9">
+        <v>5</v>
+      </c>
+      <c r="X522" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
